--- a/templates/CLIENT_ACAT_DETAIL_TEMPLATE.xlsx
+++ b/templates/CLIENT_ACAT_DETAIL_TEMPLATE.xlsx
@@ -160,9 +160,6 @@
     <t>Cropping Area Per ha/4: (Qurt)</t>
   </si>
   <si>
-    <t xml:space="preserve">Access to Non financeal serviece </t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -172,9 +169,6 @@
     <t xml:space="preserve">ID (client/loan) Number </t>
   </si>
   <si>
-    <t>Farmer'S Phone NO:_____________</t>
-  </si>
-  <si>
     <t xml:space="preserve">       Developed by: ICCO Terrafina MF</t>
   </si>
   <si>
@@ -415,9 +409,6 @@
     <t>${cropping_area_size}</t>
   </si>
   <si>
-    <t>${client.name}</t>
-  </si>
-  <si>
     <t>${client.loan_cycle_number}</t>
   </si>
   <si>
@@ -1787,6 +1778,28 @@
   </si>
   <si>
     <t>${table:cost_of_loan.placeholder}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${client.first_name} ${client.last_name} </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Farmer's Phone No: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>${client.phone}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Access to Non financial service </t>
   </si>
 </sst>
 </file>
@@ -4858,273 +4871,6 @@
     <xf numFmtId="0" fontId="25" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="3" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="3" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="6" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="6" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="78" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -5172,9 +4918,6 @@
     </xf>
     <xf numFmtId="0" fontId="55" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5378,12 +5121,399 @@
     <xf numFmtId="0" fontId="82" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="15" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="15" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="15" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="15" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="49" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="19" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="47" fillId="18" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="21" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="22" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="15" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="15" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="15" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="15" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="15" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="15" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="15" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="15" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="85" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="85" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -5396,358 +5526,241 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="3" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="3" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="6" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="6" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="15" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="15" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="15" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="15" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="15" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="15" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="15" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="15" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="15" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="15" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="15" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="15" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="7" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="55" fillId="7" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="34" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="49" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="19" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="47" fillId="18" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="21" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="22" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="24" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="22" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="34" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="83" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6065,7 +6078,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6076,7 +6089,7 @@
   <dimension ref="A1:AI64"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="49" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6096,105 +6109,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="179" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="183" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
+      <c r="A1" s="462" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="466" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="466"/>
+      <c r="D1" s="466"/>
+      <c r="E1" s="466"/>
+      <c r="F1" s="466"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="466"/>
+      <c r="I1" s="466"/>
+      <c r="J1" s="466"/>
       <c r="K1" s="59"/>
-      <c r="L1" s="207" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" s="207"/>
-      <c r="N1" s="207"/>
-      <c r="O1" s="207"/>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="207"/>
-      <c r="R1" s="207"/>
-      <c r="S1" s="207"/>
-      <c r="T1" s="207"/>
-      <c r="U1" s="207"/>
-      <c r="V1" s="207"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="207" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y1" s="207"/>
-      <c r="Z1" s="207"/>
-      <c r="AA1" s="207"/>
-      <c r="AB1" s="207"/>
-      <c r="AC1" s="207"/>
-      <c r="AD1" s="207"/>
-      <c r="AE1" s="207"/>
-      <c r="AF1" s="207"/>
-      <c r="AG1" s="207"/>
-      <c r="AH1" s="207"/>
-      <c r="AI1" s="208"/>
+      <c r="L1" s="397" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="397"/>
+      <c r="N1" s="397"/>
+      <c r="O1" s="397"/>
+      <c r="P1" s="397"/>
+      <c r="Q1" s="397"/>
+      <c r="R1" s="397"/>
+      <c r="S1" s="397"/>
+      <c r="T1" s="397"/>
+      <c r="U1" s="397"/>
+      <c r="V1" s="397"/>
+      <c r="W1" s="398"/>
+      <c r="X1" s="397" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y1" s="397"/>
+      <c r="Z1" s="397"/>
+      <c r="AA1" s="397"/>
+      <c r="AB1" s="397"/>
+      <c r="AC1" s="397"/>
+      <c r="AD1" s="397"/>
+      <c r="AE1" s="397"/>
+      <c r="AF1" s="397"/>
+      <c r="AG1" s="397"/>
+      <c r="AH1" s="397"/>
+      <c r="AI1" s="398"/>
     </row>
     <row r="2" spans="1:35" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="180"/>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
-      <c r="K2" s="350"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="209"/>
-      <c r="S2" s="209"/>
-      <c r="T2" s="209"/>
-      <c r="U2" s="209"/>
-      <c r="V2" s="209"/>
-      <c r="W2" s="210"/>
-      <c r="X2" s="209"/>
-      <c r="Y2" s="209"/>
-      <c r="Z2" s="209"/>
-      <c r="AA2" s="209"/>
-      <c r="AB2" s="209"/>
-      <c r="AC2" s="209"/>
-      <c r="AD2" s="209"/>
-      <c r="AE2" s="209"/>
-      <c r="AF2" s="209"/>
-      <c r="AG2" s="209"/>
-      <c r="AH2" s="209"/>
-      <c r="AI2" s="210"/>
+      <c r="A2" s="463"/>
+      <c r="B2" s="467"/>
+      <c r="C2" s="467"/>
+      <c r="D2" s="467"/>
+      <c r="E2" s="467"/>
+      <c r="F2" s="467"/>
+      <c r="G2" s="467"/>
+      <c r="H2" s="467"/>
+      <c r="I2" s="467"/>
+      <c r="J2" s="467"/>
+      <c r="K2" s="260"/>
+      <c r="L2" s="399"/>
+      <c r="M2" s="399"/>
+      <c r="N2" s="399"/>
+      <c r="O2" s="399"/>
+      <c r="P2" s="399"/>
+      <c r="Q2" s="399"/>
+      <c r="R2" s="399"/>
+      <c r="S2" s="399"/>
+      <c r="T2" s="399"/>
+      <c r="U2" s="399"/>
+      <c r="V2" s="399"/>
+      <c r="W2" s="400"/>
+      <c r="X2" s="399"/>
+      <c r="Y2" s="399"/>
+      <c r="Z2" s="399"/>
+      <c r="AA2" s="399"/>
+      <c r="AB2" s="399"/>
+      <c r="AC2" s="399"/>
+      <c r="AD2" s="399"/>
+      <c r="AE2" s="399"/>
+      <c r="AF2" s="399"/>
+      <c r="AG2" s="399"/>
+      <c r="AH2" s="399"/>
+      <c r="AI2" s="400"/>
     </row>
     <row r="3" spans="1:35" s="3" customFormat="1" ht="22.5" customHeight="1">
       <c r="A3" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="211" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
+      <c r="B3" s="407" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="408"/>
+      <c r="D3" s="408"/>
+      <c r="E3" s="408"/>
       <c r="F3" s="60"/>
-      <c r="G3" s="189" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="350"/>
+      <c r="G3" s="470" t="s">
+        <v>588</v>
+      </c>
+      <c r="H3" s="471"/>
+      <c r="I3" s="471"/>
+      <c r="J3" s="472"/>
+      <c r="K3" s="260"/>
       <c r="L3" s="39"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -6207,37 +6220,37 @@
       <c r="U3" s="40"/>
       <c r="V3" s="40"/>
       <c r="W3" s="41"/>
-      <c r="X3" s="268"/>
-      <c r="Y3" s="269"/>
-      <c r="Z3" s="269"/>
-      <c r="AA3" s="269"/>
-      <c r="AB3" s="269"/>
-      <c r="AC3" s="269"/>
-      <c r="AD3" s="269"/>
-      <c r="AE3" s="269"/>
-      <c r="AF3" s="269"/>
-      <c r="AG3" s="269"/>
-      <c r="AH3" s="269"/>
-      <c r="AI3" s="270"/>
+      <c r="X3" s="179"/>
+      <c r="Y3" s="180"/>
+      <c r="Z3" s="180"/>
+      <c r="AA3" s="180"/>
+      <c r="AB3" s="180"/>
+      <c r="AC3" s="180"/>
+      <c r="AD3" s="180"/>
+      <c r="AE3" s="180"/>
+      <c r="AF3" s="180"/>
+      <c r="AG3" s="180"/>
+      <c r="AH3" s="180"/>
+      <c r="AI3" s="181"/>
     </row>
     <row r="4" spans="1:35" s="3" customFormat="1" ht="22.5" customHeight="1">
       <c r="A4" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="213" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="214"/>
-      <c r="D4" s="214"/>
-      <c r="E4" s="214"/>
+      <c r="B4" s="403" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="404"/>
+      <c r="D4" s="404"/>
+      <c r="E4" s="404"/>
       <c r="F4" s="61"/>
-      <c r="G4" s="224" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="225"/>
-      <c r="I4" s="225"/>
-      <c r="J4" s="226"/>
-      <c r="K4" s="350"/>
+      <c r="G4" s="440" t="s">
+        <v>589</v>
+      </c>
+      <c r="H4" s="441"/>
+      <c r="I4" s="441"/>
+      <c r="J4" s="442"/>
+      <c r="K4" s="260"/>
       <c r="L4" s="42"/>
       <c r="M4" s="42"/>
       <c r="N4" s="42"/>
@@ -6250,37 +6263,37 @@
       <c r="U4" s="42"/>
       <c r="V4" s="42"/>
       <c r="W4" s="43"/>
-      <c r="X4" s="271"/>
-      <c r="Y4" s="271"/>
-      <c r="Z4" s="271"/>
-      <c r="AA4" s="271"/>
-      <c r="AB4" s="271"/>
-      <c r="AC4" s="271"/>
-      <c r="AD4" s="271"/>
-      <c r="AE4" s="271"/>
-      <c r="AF4" s="271"/>
-      <c r="AG4" s="271"/>
-      <c r="AH4" s="271"/>
-      <c r="AI4" s="272"/>
+      <c r="X4" s="182"/>
+      <c r="Y4" s="182"/>
+      <c r="Z4" s="182"/>
+      <c r="AA4" s="182"/>
+      <c r="AB4" s="182"/>
+      <c r="AC4" s="182"/>
+      <c r="AD4" s="182"/>
+      <c r="AE4" s="182"/>
+      <c r="AF4" s="182"/>
+      <c r="AG4" s="182"/>
+      <c r="AH4" s="182"/>
+      <c r="AI4" s="183"/>
     </row>
     <row r="5" spans="1:35" s="3" customFormat="1" ht="22.5" customHeight="1">
       <c r="A5" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="213" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="214"/>
-      <c r="D5" s="214"/>
-      <c r="E5" s="214"/>
+      <c r="B5" s="403" t="s">
+        <v>587</v>
+      </c>
+      <c r="C5" s="404"/>
+      <c r="D5" s="404"/>
+      <c r="E5" s="404"/>
       <c r="F5" s="61"/>
-      <c r="G5" s="241" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="243"/>
-      <c r="K5" s="350"/>
+      <c r="G5" s="409" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="410"/>
+      <c r="I5" s="410"/>
+      <c r="J5" s="411"/>
+      <c r="K5" s="260"/>
       <c r="L5" s="42"/>
       <c r="M5" s="42"/>
       <c r="N5" s="42"/>
@@ -6293,37 +6306,37 @@
       <c r="U5" s="42"/>
       <c r="V5" s="42"/>
       <c r="W5" s="43"/>
-      <c r="X5" s="271"/>
-      <c r="Y5" s="271"/>
-      <c r="Z5" s="271"/>
-      <c r="AA5" s="271"/>
-      <c r="AB5" s="271"/>
-      <c r="AC5" s="271"/>
-      <c r="AD5" s="271"/>
-      <c r="AE5" s="271"/>
-      <c r="AF5" s="271"/>
-      <c r="AG5" s="271"/>
-      <c r="AH5" s="271"/>
-      <c r="AI5" s="272"/>
+      <c r="X5" s="182"/>
+      <c r="Y5" s="182"/>
+      <c r="Z5" s="182"/>
+      <c r="AA5" s="182"/>
+      <c r="AB5" s="182"/>
+      <c r="AC5" s="182"/>
+      <c r="AD5" s="182"/>
+      <c r="AE5" s="182"/>
+      <c r="AF5" s="182"/>
+      <c r="AG5" s="182"/>
+      <c r="AH5" s="182"/>
+      <c r="AI5" s="183"/>
     </row>
     <row r="6" spans="1:35" s="3" customFormat="1" ht="22.5" customHeight="1">
       <c r="A6" s="145" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="187" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="188"/>
-      <c r="D6" s="188"/>
-      <c r="E6" s="188"/>
+        <v>49</v>
+      </c>
+      <c r="B6" s="405" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="406"/>
+      <c r="D6" s="406"/>
+      <c r="E6" s="406"/>
       <c r="F6" s="61"/>
-      <c r="G6" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="249"/>
-      <c r="I6" s="249"/>
-      <c r="J6" s="250"/>
-      <c r="K6" s="350"/>
+      <c r="G6" s="416" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="417"/>
+      <c r="I6" s="417"/>
+      <c r="J6" s="418"/>
+      <c r="K6" s="260"/>
       <c r="L6" s="42"/>
       <c r="M6" s="42"/>
       <c r="N6" s="44"/>
@@ -6336,33 +6349,33 @@
       <c r="U6" s="42"/>
       <c r="V6" s="42"/>
       <c r="W6" s="43"/>
-      <c r="X6" s="271"/>
-      <c r="Y6" s="271"/>
-      <c r="Z6" s="273"/>
-      <c r="AA6" s="271"/>
-      <c r="AB6" s="271"/>
-      <c r="AC6" s="271"/>
-      <c r="AD6" s="271"/>
-      <c r="AE6" s="271"/>
-      <c r="AF6" s="271"/>
-      <c r="AG6" s="271"/>
-      <c r="AH6" s="271"/>
-      <c r="AI6" s="272"/>
+      <c r="X6" s="182"/>
+      <c r="Y6" s="182"/>
+      <c r="Z6" s="184"/>
+      <c r="AA6" s="182"/>
+      <c r="AB6" s="182"/>
+      <c r="AC6" s="182"/>
+      <c r="AD6" s="182"/>
+      <c r="AE6" s="182"/>
+      <c r="AF6" s="182"/>
+      <c r="AG6" s="182"/>
+      <c r="AH6" s="182"/>
+      <c r="AI6" s="183"/>
     </row>
     <row r="7" spans="1:35" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A7" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="181"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="244"/>
-      <c r="E7" s="244"/>
+      <c r="B7" s="464"/>
+      <c r="C7" s="465"/>
+      <c r="D7" s="412"/>
+      <c r="E7" s="412"/>
       <c r="F7" s="62"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
       <c r="J7" s="26"/>
-      <c r="K7" s="350"/>
+      <c r="K7" s="260"/>
       <c r="L7" s="42"/>
       <c r="M7" s="42"/>
       <c r="N7" s="42"/>
@@ -6375,18 +6388,18 @@
       <c r="U7" s="42"/>
       <c r="V7" s="42"/>
       <c r="W7" s="43"/>
-      <c r="X7" s="271"/>
-      <c r="Y7" s="271"/>
-      <c r="Z7" s="271"/>
-      <c r="AA7" s="271"/>
-      <c r="AB7" s="271"/>
-      <c r="AC7" s="271"/>
-      <c r="AD7" s="271"/>
-      <c r="AE7" s="271"/>
-      <c r="AF7" s="271"/>
-      <c r="AG7" s="271"/>
-      <c r="AH7" s="271"/>
-      <c r="AI7" s="272"/>
+      <c r="X7" s="182"/>
+      <c r="Y7" s="182"/>
+      <c r="Z7" s="182"/>
+      <c r="AA7" s="182"/>
+      <c r="AB7" s="182"/>
+      <c r="AC7" s="182"/>
+      <c r="AD7" s="182"/>
+      <c r="AE7" s="182"/>
+      <c r="AF7" s="182"/>
+      <c r="AG7" s="182"/>
+      <c r="AH7" s="182"/>
+      <c r="AI7" s="183"/>
     </row>
     <row r="8" spans="1:35" s="3" customFormat="1" ht="9" customHeight="1" thickBot="1">
       <c r="A8" s="27"/>
@@ -6399,7 +6412,7 @@
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
       <c r="J8" s="31"/>
-      <c r="K8" s="350"/>
+      <c r="K8" s="260"/>
       <c r="L8" s="79"/>
       <c r="M8" s="45"/>
       <c r="N8" s="45"/>
@@ -6412,35 +6425,35 @@
       <c r="U8" s="45"/>
       <c r="V8" s="45"/>
       <c r="W8" s="46"/>
-      <c r="X8" s="279"/>
-      <c r="Y8" s="274"/>
-      <c r="Z8" s="274"/>
-      <c r="AA8" s="274"/>
-      <c r="AB8" s="274"/>
-      <c r="AC8" s="274"/>
-      <c r="AD8" s="274"/>
-      <c r="AE8" s="274"/>
-      <c r="AF8" s="274"/>
-      <c r="AG8" s="274"/>
-      <c r="AH8" s="274"/>
-      <c r="AI8" s="275"/>
+      <c r="X8" s="190"/>
+      <c r="Y8" s="185"/>
+      <c r="Z8" s="185"/>
+      <c r="AA8" s="185"/>
+      <c r="AB8" s="185"/>
+      <c r="AC8" s="185"/>
+      <c r="AD8" s="185"/>
+      <c r="AE8" s="185"/>
+      <c r="AF8" s="185"/>
+      <c r="AG8" s="185"/>
+      <c r="AH8" s="185"/>
+      <c r="AI8" s="186"/>
     </row>
     <row r="9" spans="1:35" s="4" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
       <c r="A9" s="16"/>
-      <c r="B9" s="245" t="s">
+      <c r="B9" s="413" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="246"/>
-      <c r="D9" s="246"/>
-      <c r="E9" s="247"/>
+      <c r="C9" s="414"/>
+      <c r="D9" s="414"/>
+      <c r="E9" s="415"/>
       <c r="F9" s="60"/>
-      <c r="G9" s="217" t="s">
+      <c r="G9" s="433" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="218"/>
-      <c r="I9" s="218"/>
+      <c r="H9" s="434"/>
+      <c r="I9" s="434"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="350"/>
+      <c r="K9" s="260"/>
       <c r="L9" s="47"/>
       <c r="M9" s="48"/>
       <c r="N9" s="48"/>
@@ -6453,18 +6466,18 @@
       <c r="U9" s="48"/>
       <c r="V9" s="48"/>
       <c r="W9" s="49"/>
-      <c r="X9" s="276"/>
-      <c r="Y9" s="277"/>
-      <c r="Z9" s="277"/>
-      <c r="AA9" s="277"/>
-      <c r="AB9" s="277"/>
-      <c r="AC9" s="277"/>
-      <c r="AD9" s="277"/>
-      <c r="AE9" s="277"/>
-      <c r="AF9" s="277"/>
-      <c r="AG9" s="277"/>
-      <c r="AH9" s="277"/>
-      <c r="AI9" s="278"/>
+      <c r="X9" s="187"/>
+      <c r="Y9" s="188"/>
+      <c r="Z9" s="188"/>
+      <c r="AA9" s="188"/>
+      <c r="AB9" s="188"/>
+      <c r="AC9" s="188"/>
+      <c r="AD9" s="188"/>
+      <c r="AE9" s="188"/>
+      <c r="AF9" s="188"/>
+      <c r="AG9" s="188"/>
+      <c r="AH9" s="188"/>
+      <c r="AI9" s="189"/>
     </row>
     <row r="10" spans="1:35" s="82" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
       <c r="A10" s="172" t="s">
@@ -6477,7 +6490,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="89" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E10" s="90" t="s">
         <v>28</v>
@@ -6487,43 +6500,43 @@
         <v>3</v>
       </c>
       <c r="H10" s="89" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I10" s="90" t="s">
         <v>28</v>
       </c>
       <c r="J10" s="149" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="350"/>
+        <v>53</v>
+      </c>
+      <c r="K10" s="260"/>
       <c r="L10" s="86"/>
-      <c r="M10" s="227" t="s">
-        <v>116</v>
-      </c>
-      <c r="N10" s="227"/>
-      <c r="O10" s="227"/>
-      <c r="P10" s="227"/>
-      <c r="Q10" s="227"/>
-      <c r="R10" s="227"/>
-      <c r="S10" s="227"/>
-      <c r="T10" s="227"/>
-      <c r="U10" s="227"/>
-      <c r="V10" s="227"/>
-      <c r="W10" s="227"/>
-      <c r="X10" s="280"/>
-      <c r="Y10" s="227" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z10" s="227"/>
-      <c r="AA10" s="227"/>
-      <c r="AB10" s="227"/>
-      <c r="AC10" s="227"/>
-      <c r="AD10" s="227"/>
-      <c r="AE10" s="227"/>
-      <c r="AF10" s="227"/>
-      <c r="AG10" s="227"/>
-      <c r="AH10" s="227"/>
-      <c r="AI10" s="264"/>
+      <c r="M10" s="401" t="s">
+        <v>114</v>
+      </c>
+      <c r="N10" s="401"/>
+      <c r="O10" s="401"/>
+      <c r="P10" s="401"/>
+      <c r="Q10" s="401"/>
+      <c r="R10" s="401"/>
+      <c r="S10" s="401"/>
+      <c r="T10" s="401"/>
+      <c r="U10" s="401"/>
+      <c r="V10" s="401"/>
+      <c r="W10" s="401"/>
+      <c r="X10" s="191"/>
+      <c r="Y10" s="401" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z10" s="401"/>
+      <c r="AA10" s="401"/>
+      <c r="AB10" s="401"/>
+      <c r="AC10" s="401"/>
+      <c r="AD10" s="401"/>
+      <c r="AE10" s="401"/>
+      <c r="AF10" s="401"/>
+      <c r="AG10" s="401"/>
+      <c r="AH10" s="401"/>
+      <c r="AI10" s="402"/>
     </row>
     <row r="11" spans="1:35" s="78" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A11" s="91" t="s">
@@ -6538,1537 +6551,1537 @@
       <c r="H11" s="96"/>
       <c r="I11" s="97"/>
       <c r="J11" s="98"/>
-      <c r="K11" s="350"/>
-      <c r="L11" s="265" t="s">
+      <c r="K11" s="260"/>
+      <c r="L11" s="176" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" s="177" t="s">
+        <v>116</v>
+      </c>
+      <c r="N11" s="177" t="s">
         <v>117</v>
       </c>
-      <c r="M11" s="266" t="s">
+      <c r="O11" s="177" t="s">
         <v>118</v>
       </c>
-      <c r="N11" s="266" t="s">
+      <c r="P11" s="177" t="s">
         <v>119</v>
       </c>
-      <c r="O11" s="266" t="s">
+      <c r="Q11" s="177" t="s">
         <v>120</v>
       </c>
-      <c r="P11" s="266" t="s">
+      <c r="R11" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="Q11" s="266" t="s">
+      <c r="S11" s="177" t="s">
         <v>122</v>
       </c>
-      <c r="R11" s="266" t="s">
+      <c r="T11" s="177" t="s">
         <v>123</v>
       </c>
-      <c r="S11" s="266" t="s">
+      <c r="U11" s="177" t="s">
         <v>124</v>
       </c>
-      <c r="T11" s="266" t="s">
+      <c r="V11" s="177" t="s">
         <v>125</v>
       </c>
-      <c r="U11" s="266" t="s">
+      <c r="W11" s="177" t="s">
         <v>126</v>
       </c>
-      <c r="V11" s="266" t="s">
-        <v>127</v>
-      </c>
-      <c r="W11" s="266" t="s">
-        <v>128</v>
-      </c>
-      <c r="X11" s="266" t="s">
+      <c r="X11" s="177" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y11" s="177" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z11" s="177" t="s">
         <v>117</v>
       </c>
-      <c r="Y11" s="266" t="s">
+      <c r="AA11" s="177" t="s">
         <v>118</v>
       </c>
-      <c r="Z11" s="266" t="s">
+      <c r="AB11" s="177" t="s">
         <v>119</v>
       </c>
-      <c r="AA11" s="266" t="s">
+      <c r="AC11" s="177" t="s">
         <v>120</v>
       </c>
-      <c r="AB11" s="266" t="s">
+      <c r="AD11" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="AC11" s="266" t="s">
+      <c r="AE11" s="177" t="s">
         <v>122</v>
       </c>
-      <c r="AD11" s="266" t="s">
+      <c r="AF11" s="177" t="s">
         <v>123</v>
       </c>
-      <c r="AE11" s="266" t="s">
+      <c r="AG11" s="177" t="s">
         <v>124</v>
       </c>
-      <c r="AF11" s="266" t="s">
+      <c r="AH11" s="177" t="s">
         <v>125</v>
       </c>
-      <c r="AG11" s="266" t="s">
+      <c r="AI11" s="178" t="s">
         <v>126</v>
-      </c>
-      <c r="AH11" s="266" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI11" s="267" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:35" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="A12" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="221"/>
-      <c r="C12" s="222"/>
-      <c r="D12" s="222"/>
-      <c r="E12" s="223"/>
+      <c r="B12" s="437"/>
+      <c r="C12" s="438"/>
+      <c r="D12" s="438"/>
+      <c r="E12" s="439"/>
       <c r="F12" s="67"/>
-      <c r="G12" s="231"/>
-      <c r="H12" s="232"/>
-      <c r="I12" s="233"/>
+      <c r="G12" s="473"/>
+      <c r="H12" s="474"/>
+      <c r="I12" s="475"/>
       <c r="J12" s="68"/>
-      <c r="K12" s="350"/>
-      <c r="L12" s="302"/>
-      <c r="M12" s="302"/>
-      <c r="N12" s="302"/>
-      <c r="O12" s="302"/>
-      <c r="P12" s="302"/>
-      <c r="Q12" s="302"/>
-      <c r="R12" s="302"/>
-      <c r="S12" s="302"/>
-      <c r="T12" s="302"/>
-      <c r="U12" s="302"/>
-      <c r="V12" s="302"/>
-      <c r="W12" s="303"/>
-      <c r="X12" s="302"/>
-      <c r="Y12" s="302"/>
-      <c r="Z12" s="302"/>
-      <c r="AA12" s="302"/>
-      <c r="AB12" s="302"/>
-      <c r="AC12" s="302"/>
-      <c r="AD12" s="302"/>
-      <c r="AE12" s="302"/>
-      <c r="AF12" s="302"/>
-      <c r="AG12" s="302"/>
-      <c r="AH12" s="302"/>
-      <c r="AI12" s="303"/>
+      <c r="K12" s="260"/>
+      <c r="L12" s="212"/>
+      <c r="M12" s="212"/>
+      <c r="N12" s="212"/>
+      <c r="O12" s="212"/>
+      <c r="P12" s="212"/>
+      <c r="Q12" s="212"/>
+      <c r="R12" s="212"/>
+      <c r="S12" s="212"/>
+      <c r="T12" s="212"/>
+      <c r="U12" s="212"/>
+      <c r="V12" s="212"/>
+      <c r="W12" s="213"/>
+      <c r="X12" s="212"/>
+      <c r="Y12" s="212"/>
+      <c r="Z12" s="212"/>
+      <c r="AA12" s="212"/>
+      <c r="AB12" s="212"/>
+      <c r="AC12" s="212"/>
+      <c r="AD12" s="212"/>
+      <c r="AE12" s="212"/>
+      <c r="AF12" s="212"/>
+      <c r="AG12" s="212"/>
+      <c r="AH12" s="212"/>
+      <c r="AI12" s="213"/>
     </row>
     <row r="13" spans="1:35" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A13" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="185" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="186"/>
-      <c r="D13" s="186"/>
+      <c r="B13" s="468" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="469"/>
+      <c r="D13" s="469"/>
       <c r="E13" s="35"/>
       <c r="F13" s="61"/>
-      <c r="G13" s="252"/>
-      <c r="H13" s="253"/>
-      <c r="I13" s="254"/>
+      <c r="G13" s="420"/>
+      <c r="H13" s="421"/>
+      <c r="I13" s="422"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="350"/>
-      <c r="L13" s="228"/>
-      <c r="M13" s="229"/>
-      <c r="N13" s="229"/>
-      <c r="O13" s="229"/>
-      <c r="P13" s="229"/>
-      <c r="Q13" s="229"/>
-      <c r="R13" s="229"/>
-      <c r="S13" s="229"/>
-      <c r="T13" s="229"/>
-      <c r="U13" s="229"/>
-      <c r="V13" s="229"/>
-      <c r="W13" s="230"/>
-      <c r="X13" s="228"/>
-      <c r="Y13" s="229"/>
-      <c r="Z13" s="229"/>
-      <c r="AA13" s="229"/>
-      <c r="AB13" s="229"/>
-      <c r="AC13" s="229"/>
-      <c r="AD13" s="229"/>
-      <c r="AE13" s="229"/>
-      <c r="AF13" s="229"/>
-      <c r="AG13" s="229"/>
-      <c r="AH13" s="229"/>
-      <c r="AI13" s="230"/>
+      <c r="K13" s="260"/>
+      <c r="L13" s="372"/>
+      <c r="M13" s="373"/>
+      <c r="N13" s="373"/>
+      <c r="O13" s="373"/>
+      <c r="P13" s="373"/>
+      <c r="Q13" s="373"/>
+      <c r="R13" s="373"/>
+      <c r="S13" s="373"/>
+      <c r="T13" s="373"/>
+      <c r="U13" s="373"/>
+      <c r="V13" s="373"/>
+      <c r="W13" s="374"/>
+      <c r="X13" s="372"/>
+      <c r="Y13" s="373"/>
+      <c r="Z13" s="373"/>
+      <c r="AA13" s="373"/>
+      <c r="AB13" s="373"/>
+      <c r="AC13" s="373"/>
+      <c r="AD13" s="373"/>
+      <c r="AE13" s="373"/>
+      <c r="AF13" s="373"/>
+      <c r="AG13" s="373"/>
+      <c r="AH13" s="373"/>
+      <c r="AI13" s="374"/>
     </row>
     <row r="14" spans="1:35" s="2" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="A14" s="360" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="475" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="475" t="s">
+      <c r="A14" s="263" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="345" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="345" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="345" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="345" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="475" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="475" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="359" t="s">
+      <c r="F14" s="262" t="s">
+        <v>520</v>
+      </c>
+      <c r="G14" s="264" t="s">
+        <v>521</v>
+      </c>
+      <c r="H14" s="264" t="s">
+        <v>522</v>
+      </c>
+      <c r="I14" s="264" t="s">
         <v>523</v>
       </c>
-      <c r="G14" s="361" t="s">
+      <c r="J14" s="263" t="s">
         <v>524</v>
       </c>
-      <c r="H14" s="361" t="s">
-        <v>525</v>
-      </c>
-      <c r="I14" s="361" t="s">
-        <v>526</v>
-      </c>
-      <c r="J14" s="360" t="s">
-        <v>527</v>
-      </c>
-      <c r="K14" s="362" t="s">
-        <v>523</v>
-      </c>
-      <c r="L14" s="317" t="s">
+      <c r="K14" s="265" t="s">
+        <v>520</v>
+      </c>
+      <c r="L14" s="227" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" s="227" t="s">
+        <v>132</v>
+      </c>
+      <c r="N14" s="227" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" s="227" t="s">
         <v>134</v>
       </c>
-      <c r="M14" s="317" t="s">
+      <c r="P14" s="227" t="s">
         <v>135</v>
       </c>
-      <c r="N14" s="317" t="s">
+      <c r="Q14" s="227" t="s">
         <v>136</v>
       </c>
-      <c r="O14" s="317" t="s">
+      <c r="R14" s="227" t="s">
         <v>137</v>
       </c>
-      <c r="P14" s="317" t="s">
+      <c r="S14" s="227" t="s">
         <v>138</v>
       </c>
-      <c r="Q14" s="317" t="s">
+      <c r="T14" s="227" t="s">
         <v>139</v>
       </c>
-      <c r="R14" s="317" t="s">
+      <c r="U14" s="227" t="s">
         <v>140</v>
       </c>
-      <c r="S14" s="317" t="s">
+      <c r="V14" s="227" t="s">
         <v>141</v>
       </c>
-      <c r="T14" s="317" t="s">
+      <c r="W14" s="227" t="s">
         <v>142</v>
       </c>
-      <c r="U14" s="317" t="s">
+      <c r="X14" s="227" t="s">
         <v>143</v>
       </c>
-      <c r="V14" s="317" t="s">
+      <c r="Y14" s="227" t="s">
         <v>144</v>
       </c>
-      <c r="W14" s="317" t="s">
+      <c r="Z14" s="227" t="s">
         <v>145</v>
       </c>
-      <c r="X14" s="317" t="s">
+      <c r="AA14" s="227" t="s">
         <v>146</v>
       </c>
-      <c r="Y14" s="317" t="s">
+      <c r="AB14" s="227" t="s">
         <v>147</v>
       </c>
-      <c r="Z14" s="317" t="s">
+      <c r="AC14" s="227" t="s">
         <v>148</v>
       </c>
-      <c r="AA14" s="317" t="s">
+      <c r="AD14" s="227" t="s">
         <v>149</v>
       </c>
-      <c r="AB14" s="317" t="s">
+      <c r="AE14" s="227" t="s">
         <v>150</v>
       </c>
-      <c r="AC14" s="317" t="s">
+      <c r="AF14" s="227" t="s">
         <v>151</v>
       </c>
-      <c r="AD14" s="317" t="s">
+      <c r="AG14" s="227" t="s">
         <v>152</v>
       </c>
-      <c r="AE14" s="317" t="s">
+      <c r="AH14" s="227" t="s">
         <v>153</v>
       </c>
-      <c r="AF14" s="317" t="s">
+      <c r="AI14" s="232" t="s">
         <v>154</v>
-      </c>
-      <c r="AG14" s="317" t="s">
-        <v>155</v>
-      </c>
-      <c r="AH14" s="317" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI14" s="322" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:35" s="155" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A15" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="373"/>
-      <c r="C15" s="374"/>
-      <c r="D15" s="375"/>
-      <c r="E15" s="376" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="363"/>
-      <c r="G15" s="377"/>
-      <c r="H15" s="375"/>
-      <c r="I15" s="376" t="s">
-        <v>528</v>
-      </c>
-      <c r="J15" s="379"/>
-      <c r="K15" s="381"/>
-      <c r="L15" s="333" t="s">
+      <c r="B15" s="276"/>
+      <c r="C15" s="277"/>
+      <c r="D15" s="278"/>
+      <c r="E15" s="279" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="266"/>
+      <c r="G15" s="280"/>
+      <c r="H15" s="278"/>
+      <c r="I15" s="279" t="s">
+        <v>525</v>
+      </c>
+      <c r="J15" s="282"/>
+      <c r="K15" s="284"/>
+      <c r="L15" s="243" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" s="244" t="s">
+        <v>156</v>
+      </c>
+      <c r="N15" s="244" t="s">
+        <v>157</v>
+      </c>
+      <c r="O15" s="244" t="s">
         <v>158</v>
       </c>
-      <c r="M15" s="334" t="s">
+      <c r="P15" s="245" t="s">
         <v>159</v>
       </c>
-      <c r="N15" s="334" t="s">
+      <c r="Q15" s="244" t="s">
         <v>160</v>
       </c>
-      <c r="O15" s="334" t="s">
+      <c r="R15" s="244" t="s">
         <v>161</v>
       </c>
-      <c r="P15" s="335" t="s">
+      <c r="S15" s="244" t="s">
         <v>162</v>
       </c>
-      <c r="Q15" s="334" t="s">
+      <c r="T15" s="244" t="s">
         <v>163</v>
       </c>
-      <c r="R15" s="334" t="s">
+      <c r="U15" s="244" t="s">
         <v>164</v>
       </c>
-      <c r="S15" s="334" t="s">
+      <c r="V15" s="244" t="s">
         <v>165</v>
       </c>
-      <c r="T15" s="334" t="s">
+      <c r="W15" s="245" t="s">
         <v>166</v>
       </c>
-      <c r="U15" s="334" t="s">
+      <c r="X15" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="V15" s="334" t="s">
+      <c r="Y15" s="244" t="s">
         <v>168</v>
       </c>
-      <c r="W15" s="335" t="s">
+      <c r="Z15" s="244" t="s">
         <v>169</v>
       </c>
-      <c r="X15" s="334" t="s">
+      <c r="AA15" s="244" t="s">
         <v>170</v>
       </c>
-      <c r="Y15" s="334" t="s">
+      <c r="AB15" s="244" t="s">
         <v>171</v>
       </c>
-      <c r="Z15" s="334" t="s">
+      <c r="AC15" s="244" t="s">
         <v>172</v>
       </c>
-      <c r="AA15" s="334" t="s">
+      <c r="AD15" s="244" t="s">
         <v>173</v>
       </c>
-      <c r="AB15" s="334" t="s">
+      <c r="AE15" s="244" t="s">
         <v>174</v>
       </c>
-      <c r="AC15" s="334" t="s">
+      <c r="AF15" s="244" t="s">
         <v>175</v>
       </c>
-      <c r="AD15" s="334" t="s">
+      <c r="AG15" s="245" t="s">
         <v>176</v>
       </c>
-      <c r="AE15" s="334" t="s">
+      <c r="AH15" s="245" t="s">
         <v>177</v>
       </c>
-      <c r="AF15" s="334" t="s">
+      <c r="AI15" s="248" t="s">
         <v>178</v>
-      </c>
-      <c r="AG15" s="335" t="s">
-        <v>179</v>
-      </c>
-      <c r="AH15" s="335" t="s">
-        <v>180</v>
-      </c>
-      <c r="AI15" s="338" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:35" s="83" customFormat="1" ht="22.5" customHeight="1" thickTop="1">
       <c r="A16" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="237"/>
-      <c r="C16" s="238"/>
-      <c r="D16" s="238"/>
-      <c r="E16" s="358"/>
-      <c r="F16" s="363"/>
-      <c r="G16" s="237"/>
-      <c r="H16" s="238"/>
-      <c r="I16" s="238"/>
-      <c r="J16" s="358"/>
-      <c r="K16" s="381"/>
-      <c r="L16" s="325" t="s">
+      <c r="B16" s="375"/>
+      <c r="C16" s="376"/>
+      <c r="D16" s="376"/>
+      <c r="E16" s="377"/>
+      <c r="F16" s="266"/>
+      <c r="G16" s="375"/>
+      <c r="H16" s="376"/>
+      <c r="I16" s="376"/>
+      <c r="J16" s="377"/>
+      <c r="K16" s="284"/>
+      <c r="L16" s="235" t="s">
+        <v>115</v>
+      </c>
+      <c r="M16" s="236" t="s">
+        <v>116</v>
+      </c>
+      <c r="N16" s="236" t="s">
         <v>117</v>
       </c>
-      <c r="M16" s="326" t="s">
+      <c r="O16" s="236" t="s">
         <v>118</v>
       </c>
-      <c r="N16" s="326" t="s">
+      <c r="P16" s="236" t="s">
         <v>119</v>
       </c>
-      <c r="O16" s="326" t="s">
+      <c r="Q16" s="236" t="s">
         <v>120</v>
       </c>
-      <c r="P16" s="326" t="s">
+      <c r="R16" s="236" t="s">
         <v>121</v>
       </c>
-      <c r="Q16" s="326" t="s">
+      <c r="S16" s="236" t="s">
         <v>122</v>
       </c>
-      <c r="R16" s="326" t="s">
+      <c r="T16" s="236" t="s">
         <v>123</v>
       </c>
-      <c r="S16" s="326" t="s">
+      <c r="U16" s="236" t="s">
         <v>124</v>
       </c>
-      <c r="T16" s="326" t="s">
+      <c r="V16" s="236" t="s">
         <v>125</v>
       </c>
-      <c r="U16" s="326" t="s">
+      <c r="W16" s="236" t="s">
         <v>126</v>
       </c>
-      <c r="V16" s="326" t="s">
-        <v>127</v>
-      </c>
-      <c r="W16" s="326" t="s">
-        <v>128</v>
-      </c>
-      <c r="X16" s="326" t="s">
+      <c r="X16" s="236" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y16" s="236" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z16" s="236" t="s">
         <v>117</v>
       </c>
-      <c r="Y16" s="326" t="s">
+      <c r="AA16" s="236" t="s">
         <v>118</v>
       </c>
-      <c r="Z16" s="326" t="s">
+      <c r="AB16" s="236" t="s">
         <v>119</v>
       </c>
-      <c r="AA16" s="326" t="s">
+      <c r="AC16" s="236" t="s">
         <v>120</v>
       </c>
-      <c r="AB16" s="326" t="s">
+      <c r="AD16" s="236" t="s">
         <v>121</v>
       </c>
-      <c r="AC16" s="326" t="s">
+      <c r="AE16" s="236" t="s">
         <v>122</v>
       </c>
-      <c r="AD16" s="326" t="s">
+      <c r="AF16" s="236" t="s">
         <v>123</v>
       </c>
-      <c r="AE16" s="326" t="s">
+      <c r="AG16" s="236" t="s">
         <v>124</v>
       </c>
-      <c r="AF16" s="326" t="s">
+      <c r="AH16" s="236" t="s">
         <v>125</v>
       </c>
-      <c r="AG16" s="326" t="s">
+      <c r="AI16" s="237" t="s">
         <v>126</v>
-      </c>
-      <c r="AH16" s="326" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI16" s="327" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:35" s="12" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A17" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="281" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="281" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="378" t="s">
+      <c r="D17" s="281" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="378" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="378" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="378" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="380" t="s">
+      <c r="E17" s="281" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="283" t="s">
+        <v>526</v>
+      </c>
+      <c r="G17" s="281" t="s">
+        <v>527</v>
+      </c>
+      <c r="H17" s="281" t="s">
+        <v>528</v>
+      </c>
+      <c r="I17" s="281" t="s">
         <v>529</v>
       </c>
-      <c r="G17" s="378" t="s">
+      <c r="J17" s="269" t="s">
         <v>530</v>
       </c>
-      <c r="H17" s="378" t="s">
-        <v>531</v>
-      </c>
-      <c r="I17" s="378" t="s">
-        <v>532</v>
-      </c>
-      <c r="J17" s="366" t="s">
-        <v>533</v>
-      </c>
-      <c r="K17" s="381" t="s">
-        <v>529</v>
-      </c>
-      <c r="L17" s="317" t="s">
+      <c r="K17" s="284" t="s">
+        <v>526</v>
+      </c>
+      <c r="L17" s="227" t="s">
+        <v>179</v>
+      </c>
+      <c r="M17" s="227" t="s">
+        <v>180</v>
+      </c>
+      <c r="N17" s="227" t="s">
+        <v>181</v>
+      </c>
+      <c r="O17" s="227" t="s">
         <v>182</v>
       </c>
-      <c r="M17" s="317" t="s">
+      <c r="P17" s="227" t="s">
         <v>183</v>
       </c>
-      <c r="N17" s="317" t="s">
+      <c r="Q17" s="227" t="s">
         <v>184</v>
       </c>
-      <c r="O17" s="317" t="s">
+      <c r="R17" s="227" t="s">
         <v>185</v>
       </c>
-      <c r="P17" s="317" t="s">
+      <c r="S17" s="227" t="s">
         <v>186</v>
       </c>
-      <c r="Q17" s="317" t="s">
+      <c r="T17" s="227" t="s">
         <v>187</v>
       </c>
-      <c r="R17" s="317" t="s">
+      <c r="U17" s="227" t="s">
         <v>188</v>
       </c>
-      <c r="S17" s="317" t="s">
+      <c r="V17" s="227" t="s">
         <v>189</v>
       </c>
-      <c r="T17" s="317" t="s">
+      <c r="W17" s="227" t="s">
         <v>190</v>
       </c>
-      <c r="U17" s="317" t="s">
+      <c r="X17" s="227" t="s">
         <v>191</v>
       </c>
-      <c r="V17" s="317" t="s">
+      <c r="Y17" s="227" t="s">
         <v>192</v>
       </c>
-      <c r="W17" s="317" t="s">
+      <c r="Z17" s="227" t="s">
         <v>193</v>
       </c>
-      <c r="X17" s="317" t="s">
+      <c r="AA17" s="227" t="s">
         <v>194</v>
       </c>
-      <c r="Y17" s="317" t="s">
+      <c r="AB17" s="227" t="s">
         <v>195</v>
       </c>
-      <c r="Z17" s="317" t="s">
+      <c r="AC17" s="227" t="s">
         <v>196</v>
       </c>
-      <c r="AA17" s="317" t="s">
+      <c r="AD17" s="227" t="s">
         <v>197</v>
       </c>
-      <c r="AB17" s="317" t="s">
+      <c r="AE17" s="227" t="s">
         <v>198</v>
       </c>
-      <c r="AC17" s="317" t="s">
+      <c r="AF17" s="227" t="s">
         <v>199</v>
       </c>
-      <c r="AD17" s="317" t="s">
+      <c r="AG17" s="227" t="s">
         <v>200</v>
       </c>
-      <c r="AE17" s="317" t="s">
+      <c r="AH17" s="227" t="s">
         <v>201</v>
       </c>
-      <c r="AF17" s="317" t="s">
+      <c r="AI17" s="232" t="s">
         <v>202</v>
-      </c>
-      <c r="AG17" s="317" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH17" s="317" t="s">
-        <v>204</v>
-      </c>
-      <c r="AI17" s="322" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:35" s="83" customFormat="1" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A18" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="370"/>
-      <c r="C18" s="370"/>
-      <c r="D18" s="371"/>
-      <c r="E18" s="376" t="s">
-        <v>534</v>
-      </c>
-      <c r="F18" s="363"/>
-      <c r="G18" s="372"/>
-      <c r="H18" s="371"/>
-      <c r="I18" s="376" t="s">
-        <v>535</v>
-      </c>
-      <c r="J18" s="370"/>
-      <c r="K18" s="381"/>
-      <c r="L18" s="333" t="s">
+      <c r="B18" s="273"/>
+      <c r="C18" s="273"/>
+      <c r="D18" s="274"/>
+      <c r="E18" s="279" t="s">
+        <v>531</v>
+      </c>
+      <c r="F18" s="266"/>
+      <c r="G18" s="275"/>
+      <c r="H18" s="274"/>
+      <c r="I18" s="279" t="s">
+        <v>532</v>
+      </c>
+      <c r="J18" s="273"/>
+      <c r="K18" s="284"/>
+      <c r="L18" s="243" t="s">
+        <v>203</v>
+      </c>
+      <c r="M18" s="244" t="s">
+        <v>204</v>
+      </c>
+      <c r="N18" s="244" t="s">
+        <v>205</v>
+      </c>
+      <c r="O18" s="244" t="s">
         <v>206</v>
       </c>
-      <c r="M18" s="334" t="s">
+      <c r="P18" s="245" t="s">
         <v>207</v>
       </c>
-      <c r="N18" s="334" t="s">
+      <c r="Q18" s="244" t="s">
         <v>208</v>
       </c>
-      <c r="O18" s="334" t="s">
+      <c r="R18" s="244" t="s">
         <v>209</v>
       </c>
-      <c r="P18" s="335" t="s">
+      <c r="S18" s="244" t="s">
         <v>210</v>
       </c>
-      <c r="Q18" s="334" t="s">
+      <c r="T18" s="244" t="s">
         <v>211</v>
       </c>
-      <c r="R18" s="334" t="s">
+      <c r="U18" s="244" t="s">
         <v>212</v>
       </c>
-      <c r="S18" s="334" t="s">
+      <c r="V18" s="244" t="s">
         <v>213</v>
       </c>
-      <c r="T18" s="334" t="s">
+      <c r="W18" s="245" t="s">
         <v>214</v>
       </c>
-      <c r="U18" s="334" t="s">
+      <c r="X18" s="244" t="s">
         <v>215</v>
       </c>
-      <c r="V18" s="334" t="s">
+      <c r="Y18" s="244" t="s">
         <v>216</v>
       </c>
-      <c r="W18" s="335" t="s">
+      <c r="Z18" s="244" t="s">
         <v>217</v>
       </c>
-      <c r="X18" s="334" t="s">
+      <c r="AA18" s="244" t="s">
         <v>218</v>
       </c>
-      <c r="Y18" s="334" t="s">
+      <c r="AB18" s="244" t="s">
         <v>219</v>
       </c>
-      <c r="Z18" s="334" t="s">
+      <c r="AC18" s="244" t="s">
         <v>220</v>
       </c>
-      <c r="AA18" s="334" t="s">
+      <c r="AD18" s="244" t="s">
         <v>221</v>
       </c>
-      <c r="AB18" s="334" t="s">
+      <c r="AE18" s="244" t="s">
         <v>222</v>
       </c>
-      <c r="AC18" s="334" t="s">
+      <c r="AF18" s="244" t="s">
         <v>223</v>
       </c>
-      <c r="AD18" s="334" t="s">
+      <c r="AG18" s="244" t="s">
         <v>224</v>
       </c>
-      <c r="AE18" s="334" t="s">
+      <c r="AH18" s="244" t="s">
         <v>225</v>
       </c>
-      <c r="AF18" s="334" t="s">
+      <c r="AI18" s="248" t="s">
         <v>226</v>
-      </c>
-      <c r="AG18" s="334" t="s">
-        <v>227</v>
-      </c>
-      <c r="AH18" s="334" t="s">
-        <v>228</v>
-      </c>
-      <c r="AI18" s="338" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:35" s="2" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A19" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="364"/>
-      <c r="C19" s="365"/>
-      <c r="D19" s="364"/>
-      <c r="E19" s="364"/>
-      <c r="F19" s="363"/>
-      <c r="G19" s="388"/>
-      <c r="H19" s="389"/>
-      <c r="I19" s="389"/>
-      <c r="J19" s="390"/>
-      <c r="K19" s="381"/>
-      <c r="L19" s="304"/>
-      <c r="M19" s="305"/>
-      <c r="N19" s="305" t="s">
+      <c r="B19" s="267"/>
+      <c r="C19" s="268"/>
+      <c r="D19" s="267"/>
+      <c r="E19" s="267"/>
+      <c r="F19" s="266"/>
+      <c r="G19" s="384"/>
+      <c r="H19" s="385"/>
+      <c r="I19" s="385"/>
+      <c r="J19" s="386"/>
+      <c r="K19" s="284"/>
+      <c r="L19" s="214"/>
+      <c r="M19" s="215"/>
+      <c r="N19" s="215" t="s">
         <v>8</v>
       </c>
-      <c r="O19" s="305"/>
-      <c r="P19" s="305"/>
-      <c r="Q19" s="305"/>
-      <c r="R19" s="305"/>
-      <c r="S19" s="305"/>
-      <c r="T19" s="305"/>
-      <c r="U19" s="305"/>
-      <c r="V19" s="305"/>
-      <c r="W19" s="306"/>
-      <c r="X19" s="289"/>
-      <c r="Y19" s="289"/>
-      <c r="Z19" s="289"/>
-      <c r="AA19" s="289"/>
-      <c r="AB19" s="289"/>
-      <c r="AC19" s="289"/>
-      <c r="AD19" s="289"/>
-      <c r="AE19" s="289"/>
-      <c r="AF19" s="289"/>
-      <c r="AG19" s="289"/>
-      <c r="AH19" s="289"/>
-      <c r="AI19" s="323"/>
+      <c r="O19" s="215"/>
+      <c r="P19" s="215"/>
+      <c r="Q19" s="215"/>
+      <c r="R19" s="215"/>
+      <c r="S19" s="215"/>
+      <c r="T19" s="215"/>
+      <c r="U19" s="215"/>
+      <c r="V19" s="215"/>
+      <c r="W19" s="216"/>
+      <c r="X19" s="199"/>
+      <c r="Y19" s="199"/>
+      <c r="Z19" s="199"/>
+      <c r="AA19" s="199"/>
+      <c r="AB19" s="199"/>
+      <c r="AC19" s="199"/>
+      <c r="AD19" s="199"/>
+      <c r="AE19" s="199"/>
+      <c r="AF19" s="199"/>
+      <c r="AG19" s="199"/>
+      <c r="AH19" s="199"/>
+      <c r="AI19" s="233"/>
     </row>
     <row r="20" spans="1:35" s="83" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A20" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="382"/>
-      <c r="C20" s="383"/>
-      <c r="D20" s="383"/>
-      <c r="E20" s="384"/>
-      <c r="F20" s="363"/>
-      <c r="G20" s="382"/>
-      <c r="H20" s="383"/>
-      <c r="I20" s="383"/>
-      <c r="J20" s="384"/>
-      <c r="K20" s="381"/>
-      <c r="L20" s="328" t="s">
+      <c r="B20" s="378"/>
+      <c r="C20" s="379"/>
+      <c r="D20" s="379"/>
+      <c r="E20" s="380"/>
+      <c r="F20" s="266"/>
+      <c r="G20" s="378"/>
+      <c r="H20" s="379"/>
+      <c r="I20" s="379"/>
+      <c r="J20" s="380"/>
+      <c r="K20" s="284"/>
+      <c r="L20" s="238" t="s">
+        <v>115</v>
+      </c>
+      <c r="M20" s="239" t="s">
+        <v>116</v>
+      </c>
+      <c r="N20" s="239" t="s">
         <v>117</v>
       </c>
-      <c r="M20" s="329" t="s">
+      <c r="O20" s="239" t="s">
         <v>118</v>
       </c>
-      <c r="N20" s="329" t="s">
+      <c r="P20" s="239" t="s">
         <v>119</v>
       </c>
-      <c r="O20" s="329" t="s">
+      <c r="Q20" s="239" t="s">
         <v>120</v>
       </c>
-      <c r="P20" s="329" t="s">
+      <c r="R20" s="239" t="s">
         <v>121</v>
       </c>
-      <c r="Q20" s="329" t="s">
+      <c r="S20" s="239" t="s">
         <v>122</v>
       </c>
-      <c r="R20" s="329" t="s">
+      <c r="T20" s="239" t="s">
         <v>123</v>
       </c>
-      <c r="S20" s="329" t="s">
+      <c r="U20" s="239" t="s">
         <v>124</v>
       </c>
-      <c r="T20" s="329" t="s">
+      <c r="V20" s="239" t="s">
         <v>125</v>
       </c>
-      <c r="U20" s="329" t="s">
+      <c r="W20" s="239" t="s">
         <v>126</v>
       </c>
-      <c r="V20" s="329" t="s">
-        <v>127</v>
-      </c>
-      <c r="W20" s="329" t="s">
-        <v>128</v>
-      </c>
-      <c r="X20" s="329" t="s">
+      <c r="X20" s="239" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y20" s="239" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z20" s="239" t="s">
         <v>117</v>
       </c>
-      <c r="Y20" s="329" t="s">
+      <c r="AA20" s="239" t="s">
         <v>118</v>
       </c>
-      <c r="Z20" s="329" t="s">
+      <c r="AB20" s="239" t="s">
         <v>119</v>
       </c>
-      <c r="AA20" s="329" t="s">
+      <c r="AC20" s="239" t="s">
         <v>120</v>
       </c>
-      <c r="AB20" s="329" t="s">
+      <c r="AD20" s="239" t="s">
         <v>121</v>
       </c>
-      <c r="AC20" s="329" t="s">
+      <c r="AE20" s="239" t="s">
         <v>122</v>
       </c>
-      <c r="AD20" s="329" t="s">
+      <c r="AF20" s="239" t="s">
         <v>123</v>
       </c>
-      <c r="AE20" s="329" t="s">
+      <c r="AG20" s="239" t="s">
         <v>124</v>
       </c>
-      <c r="AF20" s="329" t="s">
+      <c r="AH20" s="239" t="s">
         <v>125</v>
       </c>
-      <c r="AG20" s="329" t="s">
+      <c r="AI20" s="240" t="s">
         <v>126</v>
-      </c>
-      <c r="AH20" s="329" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI20" s="330" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:35" s="7" customFormat="1" ht="21" customHeight="1" thickTop="1" thickBot="1">
       <c r="A21" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="378" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="281" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="281" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="378" t="s">
+      <c r="D21" s="281" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="281" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="378" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="378" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" s="363" t="s">
+      <c r="F21" s="266" t="s">
+        <v>533</v>
+      </c>
+      <c r="G21" s="281" t="s">
+        <v>534</v>
+      </c>
+      <c r="H21" s="281" t="s">
+        <v>535</v>
+      </c>
+      <c r="I21" s="281" t="s">
         <v>536</v>
       </c>
-      <c r="G21" s="378" t="s">
+      <c r="J21" s="269" t="s">
         <v>537</v>
       </c>
-      <c r="H21" s="378" t="s">
-        <v>538</v>
-      </c>
-      <c r="I21" s="378" t="s">
-        <v>539</v>
-      </c>
-      <c r="J21" s="366" t="s">
-        <v>540</v>
-      </c>
-      <c r="K21" s="381" t="s">
-        <v>536</v>
-      </c>
-      <c r="L21" s="317" t="s">
+      <c r="K21" s="284" t="s">
+        <v>533</v>
+      </c>
+      <c r="L21" s="227" t="s">
+        <v>227</v>
+      </c>
+      <c r="M21" s="227" t="s">
+        <v>228</v>
+      </c>
+      <c r="N21" s="227" t="s">
+        <v>229</v>
+      </c>
+      <c r="O21" s="227" t="s">
         <v>230</v>
       </c>
-      <c r="M21" s="317" t="s">
+      <c r="P21" s="227" t="s">
         <v>231</v>
       </c>
-      <c r="N21" s="317" t="s">
+      <c r="Q21" s="227" t="s">
         <v>232</v>
       </c>
-      <c r="O21" s="317" t="s">
+      <c r="R21" s="227" t="s">
         <v>233</v>
       </c>
-      <c r="P21" s="317" t="s">
+      <c r="S21" s="227" t="s">
         <v>234</v>
       </c>
-      <c r="Q21" s="317" t="s">
+      <c r="T21" s="227" t="s">
         <v>235</v>
       </c>
-      <c r="R21" s="317" t="s">
+      <c r="U21" s="227" t="s">
         <v>236</v>
       </c>
-      <c r="S21" s="317" t="s">
+      <c r="V21" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="T21" s="317" t="s">
+      <c r="W21" s="227" t="s">
         <v>238</v>
       </c>
-      <c r="U21" s="317" t="s">
+      <c r="X21" s="227" t="s">
         <v>239</v>
       </c>
-      <c r="V21" s="317" t="s">
+      <c r="Y21" s="227" t="s">
         <v>240</v>
       </c>
-      <c r="W21" s="317" t="s">
+      <c r="Z21" s="227" t="s">
         <v>241</v>
       </c>
-      <c r="X21" s="317" t="s">
+      <c r="AA21" s="227" t="s">
         <v>242</v>
       </c>
-      <c r="Y21" s="317" t="s">
+      <c r="AB21" s="227" t="s">
         <v>243</v>
       </c>
-      <c r="Z21" s="317" t="s">
+      <c r="AC21" s="227" t="s">
         <v>244</v>
       </c>
-      <c r="AA21" s="317" t="s">
+      <c r="AD21" s="227" t="s">
         <v>245</v>
       </c>
-      <c r="AB21" s="317" t="s">
+      <c r="AE21" s="227" t="s">
         <v>246</v>
       </c>
-      <c r="AC21" s="317" t="s">
+      <c r="AF21" s="227" t="s">
         <v>247</v>
       </c>
-      <c r="AD21" s="317" t="s">
+      <c r="AG21" s="227" t="s">
         <v>248</v>
       </c>
-      <c r="AE21" s="317" t="s">
+      <c r="AH21" s="227" t="s">
         <v>249</v>
       </c>
-      <c r="AF21" s="317" t="s">
+      <c r="AI21" s="232" t="s">
         <v>250</v>
-      </c>
-      <c r="AG21" s="317" t="s">
-        <v>251</v>
-      </c>
-      <c r="AH21" s="317" t="s">
-        <v>252</v>
-      </c>
-      <c r="AI21" s="322" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:35" s="70" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A22" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="385"/>
-      <c r="C22" s="386"/>
-      <c r="D22" s="386"/>
-      <c r="E22" s="387"/>
-      <c r="F22" s="363"/>
-      <c r="G22" s="382"/>
-      <c r="H22" s="383"/>
-      <c r="I22" s="383"/>
-      <c r="J22" s="384"/>
-      <c r="K22" s="381"/>
-      <c r="L22" s="328" t="s">
+      <c r="B22" s="381"/>
+      <c r="C22" s="382"/>
+      <c r="D22" s="382"/>
+      <c r="E22" s="383"/>
+      <c r="F22" s="266"/>
+      <c r="G22" s="378"/>
+      <c r="H22" s="379"/>
+      <c r="I22" s="379"/>
+      <c r="J22" s="380"/>
+      <c r="K22" s="284"/>
+      <c r="L22" s="238" t="s">
+        <v>115</v>
+      </c>
+      <c r="M22" s="239" t="s">
+        <v>116</v>
+      </c>
+      <c r="N22" s="239" t="s">
         <v>117</v>
       </c>
-      <c r="M22" s="329" t="s">
+      <c r="O22" s="239" t="s">
         <v>118</v>
       </c>
-      <c r="N22" s="329" t="s">
+      <c r="P22" s="239" t="s">
         <v>119</v>
       </c>
-      <c r="O22" s="329" t="s">
+      <c r="Q22" s="239" t="s">
         <v>120</v>
       </c>
-      <c r="P22" s="329" t="s">
+      <c r="R22" s="239" t="s">
         <v>121</v>
       </c>
-      <c r="Q22" s="329" t="s">
+      <c r="S22" s="239" t="s">
         <v>122</v>
       </c>
-      <c r="R22" s="329" t="s">
+      <c r="T22" s="239" t="s">
         <v>123</v>
       </c>
-      <c r="S22" s="329" t="s">
+      <c r="U22" s="239" t="s">
         <v>124</v>
       </c>
-      <c r="T22" s="329" t="s">
+      <c r="V22" s="239" t="s">
         <v>125</v>
       </c>
-      <c r="U22" s="329" t="s">
+      <c r="W22" s="239" t="s">
         <v>126</v>
       </c>
-      <c r="V22" s="329" t="s">
-        <v>127</v>
-      </c>
-      <c r="W22" s="329" t="s">
-        <v>128</v>
-      </c>
-      <c r="X22" s="329" t="s">
+      <c r="X22" s="239" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y22" s="239" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z22" s="239" t="s">
         <v>117</v>
       </c>
-      <c r="Y22" s="329" t="s">
+      <c r="AA22" s="239" t="s">
         <v>118</v>
       </c>
-      <c r="Z22" s="329" t="s">
+      <c r="AB22" s="239" t="s">
         <v>119</v>
       </c>
-      <c r="AA22" s="329" t="s">
+      <c r="AC22" s="239" t="s">
         <v>120</v>
       </c>
-      <c r="AB22" s="329" t="s">
+      <c r="AD22" s="239" t="s">
         <v>121</v>
       </c>
-      <c r="AC22" s="329" t="s">
+      <c r="AE22" s="239" t="s">
         <v>122</v>
       </c>
-      <c r="AD22" s="329" t="s">
+      <c r="AF22" s="239" t="s">
         <v>123</v>
       </c>
-      <c r="AE22" s="329" t="s">
+      <c r="AG22" s="239" t="s">
         <v>124</v>
       </c>
-      <c r="AF22" s="329" t="s">
+      <c r="AH22" s="239" t="s">
         <v>125</v>
       </c>
-      <c r="AG22" s="329" t="s">
+      <c r="AI22" s="240" t="s">
         <v>126</v>
-      </c>
-      <c r="AH22" s="329" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI22" s="330" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:35" s="7" customFormat="1" ht="20.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A23" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="281" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="281" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="378" t="s">
+      <c r="D23" s="281" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="378" t="s">
+      <c r="E23" s="281" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="378" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="378" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="363" t="s">
+      <c r="F23" s="266" t="s">
+        <v>538</v>
+      </c>
+      <c r="G23" s="281" t="s">
+        <v>539</v>
+      </c>
+      <c r="H23" s="281" t="s">
+        <v>540</v>
+      </c>
+      <c r="I23" s="281" t="s">
         <v>541</v>
       </c>
-      <c r="G23" s="378" t="s">
+      <c r="J23" s="269" t="s">
         <v>542</v>
       </c>
-      <c r="H23" s="378" t="s">
-        <v>543</v>
-      </c>
-      <c r="I23" s="378" t="s">
-        <v>544</v>
-      </c>
-      <c r="J23" s="366" t="s">
-        <v>545</v>
-      </c>
-      <c r="K23" s="381" t="s">
-        <v>541</v>
-      </c>
-      <c r="L23" s="317" t="s">
+      <c r="K23" s="284" t="s">
+        <v>538</v>
+      </c>
+      <c r="L23" s="227" t="s">
+        <v>251</v>
+      </c>
+      <c r="M23" s="227" t="s">
+        <v>252</v>
+      </c>
+      <c r="N23" s="227" t="s">
+        <v>253</v>
+      </c>
+      <c r="O23" s="227" t="s">
         <v>254</v>
       </c>
-      <c r="M23" s="317" t="s">
+      <c r="P23" s="227" t="s">
         <v>255</v>
       </c>
-      <c r="N23" s="317" t="s">
+      <c r="Q23" s="227" t="s">
         <v>256</v>
       </c>
-      <c r="O23" s="317" t="s">
+      <c r="R23" s="227" t="s">
         <v>257</v>
       </c>
-      <c r="P23" s="317" t="s">
+      <c r="S23" s="227" t="s">
         <v>258</v>
       </c>
-      <c r="Q23" s="317" t="s">
+      <c r="T23" s="227" t="s">
         <v>259</v>
       </c>
-      <c r="R23" s="317" t="s">
+      <c r="U23" s="227" t="s">
         <v>260</v>
       </c>
-      <c r="S23" s="317" t="s">
+      <c r="V23" s="227" t="s">
         <v>261</v>
       </c>
-      <c r="T23" s="317" t="s">
+      <c r="W23" s="227" t="s">
         <v>262</v>
       </c>
-      <c r="U23" s="317" t="s">
+      <c r="X23" s="227" t="s">
         <v>263</v>
       </c>
-      <c r="V23" s="317" t="s">
+      <c r="Y23" s="227" t="s">
         <v>264</v>
       </c>
-      <c r="W23" s="317" t="s">
+      <c r="Z23" s="227" t="s">
         <v>265</v>
       </c>
-      <c r="X23" s="317" t="s">
+      <c r="AA23" s="227" t="s">
         <v>266</v>
       </c>
-      <c r="Y23" s="317" t="s">
+      <c r="AB23" s="227" t="s">
         <v>267</v>
       </c>
-      <c r="Z23" s="317" t="s">
+      <c r="AC23" s="227" t="s">
         <v>268</v>
       </c>
-      <c r="AA23" s="317" t="s">
+      <c r="AD23" s="227" t="s">
         <v>269</v>
       </c>
-      <c r="AB23" s="317" t="s">
+      <c r="AE23" s="227" t="s">
         <v>270</v>
       </c>
-      <c r="AC23" s="317" t="s">
+      <c r="AF23" s="227" t="s">
         <v>271</v>
       </c>
-      <c r="AD23" s="317" t="s">
+      <c r="AG23" s="227" t="s">
         <v>272</v>
       </c>
-      <c r="AE23" s="317" t="s">
+      <c r="AH23" s="227" t="s">
         <v>273</v>
       </c>
-      <c r="AF23" s="317" t="s">
+      <c r="AI23" s="232" t="s">
         <v>274</v>
-      </c>
-      <c r="AG23" s="317" t="s">
-        <v>275</v>
-      </c>
-      <c r="AH23" s="317" t="s">
-        <v>276</v>
-      </c>
-      <c r="AI23" s="322" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:35" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1">
       <c r="A24" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="367"/>
-      <c r="C24" s="368"/>
-      <c r="D24" s="369"/>
-      <c r="E24" s="376" t="s">
-        <v>546</v>
-      </c>
-      <c r="F24" s="363"/>
-      <c r="G24" s="368"/>
-      <c r="H24" s="369"/>
-      <c r="I24" s="376" t="s">
-        <v>547</v>
-      </c>
-      <c r="J24" s="369"/>
-      <c r="K24" s="381"/>
-      <c r="L24" s="333" t="s">
+      <c r="B24" s="270"/>
+      <c r="C24" s="271"/>
+      <c r="D24" s="272"/>
+      <c r="E24" s="279" t="s">
+        <v>543</v>
+      </c>
+      <c r="F24" s="266"/>
+      <c r="G24" s="271"/>
+      <c r="H24" s="272"/>
+      <c r="I24" s="279" t="s">
+        <v>544</v>
+      </c>
+      <c r="J24" s="272"/>
+      <c r="K24" s="284"/>
+      <c r="L24" s="243" t="s">
+        <v>275</v>
+      </c>
+      <c r="M24" s="244" t="s">
+        <v>276</v>
+      </c>
+      <c r="N24" s="244" t="s">
+        <v>277</v>
+      </c>
+      <c r="O24" s="244" t="s">
         <v>278</v>
       </c>
-      <c r="M24" s="334" t="s">
+      <c r="P24" s="245" t="s">
         <v>279</v>
       </c>
-      <c r="N24" s="334" t="s">
+      <c r="Q24" s="244" t="s">
         <v>280</v>
       </c>
-      <c r="O24" s="334" t="s">
+      <c r="R24" s="244" t="s">
         <v>281</v>
       </c>
-      <c r="P24" s="335" t="s">
+      <c r="S24" s="244" t="s">
         <v>282</v>
       </c>
-      <c r="Q24" s="334" t="s">
+      <c r="T24" s="244" t="s">
         <v>283</v>
       </c>
-      <c r="R24" s="334" t="s">
+      <c r="U24" s="244" t="s">
         <v>284</v>
       </c>
-      <c r="S24" s="334" t="s">
+      <c r="V24" s="244" t="s">
         <v>285</v>
       </c>
-      <c r="T24" s="334" t="s">
+      <c r="W24" s="245" t="s">
         <v>286</v>
       </c>
-      <c r="U24" s="334" t="s">
+      <c r="X24" s="244" t="s">
         <v>287</v>
       </c>
-      <c r="V24" s="334" t="s">
+      <c r="Y24" s="244" t="s">
         <v>288</v>
       </c>
-      <c r="W24" s="335" t="s">
+      <c r="Z24" s="244" t="s">
         <v>289</v>
       </c>
-      <c r="X24" s="334" t="s">
+      <c r="AA24" s="244" t="s">
         <v>290</v>
       </c>
-      <c r="Y24" s="334" t="s">
+      <c r="AB24" s="244" t="s">
         <v>291</v>
       </c>
-      <c r="Z24" s="334" t="s">
+      <c r="AC24" s="244" t="s">
         <v>292</v>
       </c>
-      <c r="AA24" s="334" t="s">
+      <c r="AD24" s="244" t="s">
         <v>293</v>
       </c>
-      <c r="AB24" s="334" t="s">
+      <c r="AE24" s="244" t="s">
         <v>294</v>
       </c>
-      <c r="AC24" s="334" t="s">
+      <c r="AF24" s="244" t="s">
         <v>295</v>
       </c>
-      <c r="AD24" s="334" t="s">
+      <c r="AG24" s="244" t="s">
         <v>296</v>
       </c>
-      <c r="AE24" s="334" t="s">
+      <c r="AH24" s="244" t="s">
         <v>297</v>
       </c>
-      <c r="AF24" s="334" t="s">
+      <c r="AI24" s="246" t="s">
         <v>298</v>
-      </c>
-      <c r="AG24" s="334" t="s">
-        <v>299</v>
-      </c>
-      <c r="AH24" s="334" t="s">
-        <v>300</v>
-      </c>
-      <c r="AI24" s="336" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:35" s="70" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A25" s="391" t="s">
+      <c r="A25" s="364" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="392"/>
-      <c r="C25" s="392"/>
-      <c r="D25" s="393"/>
-      <c r="E25" s="396" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="395"/>
-      <c r="G25" s="394"/>
-      <c r="H25" s="399"/>
-      <c r="I25" s="396" t="s">
-        <v>62</v>
-      </c>
-      <c r="J25" s="397"/>
-      <c r="K25" s="398"/>
-      <c r="L25" s="333" t="s">
+      <c r="B25" s="365"/>
+      <c r="C25" s="365"/>
+      <c r="D25" s="366"/>
+      <c r="E25" s="286" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="285"/>
+      <c r="G25" s="367"/>
+      <c r="H25" s="368"/>
+      <c r="I25" s="286" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="287"/>
+      <c r="K25" s="288"/>
+      <c r="L25" s="243" t="s">
+        <v>299</v>
+      </c>
+      <c r="M25" s="244" t="s">
+        <v>300</v>
+      </c>
+      <c r="N25" s="244" t="s">
+        <v>301</v>
+      </c>
+      <c r="O25" s="244" t="s">
         <v>302</v>
       </c>
-      <c r="M25" s="334" t="s">
+      <c r="P25" s="245" t="s">
         <v>303</v>
       </c>
-      <c r="N25" s="334" t="s">
+      <c r="Q25" s="244" t="s">
         <v>304</v>
       </c>
-      <c r="O25" s="334" t="s">
+      <c r="R25" s="244" t="s">
         <v>305</v>
       </c>
-      <c r="P25" s="335" t="s">
+      <c r="S25" s="244" t="s">
         <v>306</v>
       </c>
-      <c r="Q25" s="334" t="s">
+      <c r="T25" s="244" t="s">
         <v>307</v>
       </c>
-      <c r="R25" s="334" t="s">
+      <c r="U25" s="244" t="s">
         <v>308</v>
       </c>
-      <c r="S25" s="334" t="s">
+      <c r="V25" s="244" t="s">
         <v>309</v>
       </c>
-      <c r="T25" s="334" t="s">
+      <c r="W25" s="245" t="s">
         <v>310</v>
       </c>
-      <c r="U25" s="334" t="s">
+      <c r="X25" s="244" t="s">
         <v>311</v>
       </c>
-      <c r="V25" s="334" t="s">
+      <c r="Y25" s="244" t="s">
         <v>312</v>
       </c>
-      <c r="W25" s="335" t="s">
+      <c r="Z25" s="244" t="s">
         <v>313</v>
       </c>
-      <c r="X25" s="334" t="s">
+      <c r="AA25" s="244" t="s">
         <v>314</v>
       </c>
-      <c r="Y25" s="334" t="s">
+      <c r="AB25" s="244" t="s">
         <v>315</v>
       </c>
-      <c r="Z25" s="334" t="s">
+      <c r="AC25" s="244" t="s">
         <v>316</v>
       </c>
-      <c r="AA25" s="334" t="s">
+      <c r="AD25" s="244" t="s">
         <v>317</v>
       </c>
-      <c r="AB25" s="334" t="s">
+      <c r="AE25" s="244" t="s">
         <v>318</v>
       </c>
-      <c r="AC25" s="334" t="s">
+      <c r="AF25" s="244" t="s">
         <v>319</v>
       </c>
-      <c r="AD25" s="334" t="s">
+      <c r="AG25" s="244" t="s">
         <v>320</v>
       </c>
-      <c r="AE25" s="334" t="s">
+      <c r="AH25" s="244" t="s">
         <v>321</v>
       </c>
-      <c r="AF25" s="334" t="s">
+      <c r="AI25" s="246" t="s">
         <v>322</v>
-      </c>
-      <c r="AG25" s="334" t="s">
-        <v>323</v>
-      </c>
-      <c r="AH25" s="334" t="s">
-        <v>324</v>
-      </c>
-      <c r="AI25" s="336" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:35" s="77" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A26" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="192"/>
-      <c r="C26" s="193"/>
-      <c r="D26" s="193"/>
-      <c r="E26" s="194"/>
+      <c r="B26" s="443"/>
+      <c r="C26" s="444"/>
+      <c r="D26" s="444"/>
+      <c r="E26" s="445"/>
       <c r="F26" s="76"/>
-      <c r="G26" s="234"/>
-      <c r="H26" s="235"/>
-      <c r="I26" s="235"/>
-      <c r="J26" s="236"/>
-      <c r="K26" s="350"/>
-      <c r="L26" s="318" t="s">
+      <c r="G26" s="448"/>
+      <c r="H26" s="449"/>
+      <c r="I26" s="449"/>
+      <c r="J26" s="450"/>
+      <c r="K26" s="260"/>
+      <c r="L26" s="228" t="s">
+        <v>115</v>
+      </c>
+      <c r="M26" s="229" t="s">
+        <v>116</v>
+      </c>
+      <c r="N26" s="229" t="s">
         <v>117</v>
       </c>
-      <c r="M26" s="319" t="s">
+      <c r="O26" s="229" t="s">
         <v>118</v>
       </c>
-      <c r="N26" s="319" t="s">
+      <c r="P26" s="229" t="s">
         <v>119</v>
       </c>
-      <c r="O26" s="319" t="s">
+      <c r="Q26" s="229" t="s">
         <v>120</v>
       </c>
-      <c r="P26" s="319" t="s">
+      <c r="R26" s="229" t="s">
         <v>121</v>
       </c>
-      <c r="Q26" s="319" t="s">
+      <c r="S26" s="229" t="s">
         <v>122</v>
       </c>
-      <c r="R26" s="319" t="s">
+      <c r="T26" s="229" t="s">
         <v>123</v>
       </c>
-      <c r="S26" s="319" t="s">
+      <c r="U26" s="229" t="s">
         <v>124</v>
       </c>
-      <c r="T26" s="319" t="s">
+      <c r="V26" s="229" t="s">
         <v>125</v>
       </c>
-      <c r="U26" s="319" t="s">
+      <c r="W26" s="230" t="s">
         <v>126</v>
       </c>
-      <c r="V26" s="319" t="s">
-        <v>127</v>
-      </c>
-      <c r="W26" s="320" t="s">
-        <v>128</v>
-      </c>
-      <c r="X26" s="318" t="s">
+      <c r="X26" s="228" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y26" s="229" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z26" s="229" t="s">
         <v>117</v>
       </c>
-      <c r="Y26" s="319" t="s">
+      <c r="AA26" s="229" t="s">
         <v>118</v>
       </c>
-      <c r="Z26" s="319" t="s">
+      <c r="AB26" s="229" t="s">
         <v>119</v>
       </c>
-      <c r="AA26" s="319" t="s">
+      <c r="AC26" s="229" t="s">
         <v>120</v>
       </c>
-      <c r="AB26" s="319" t="s">
+      <c r="AD26" s="229" t="s">
         <v>121</v>
       </c>
-      <c r="AC26" s="319" t="s">
+      <c r="AE26" s="229" t="s">
         <v>122</v>
       </c>
-      <c r="AD26" s="319" t="s">
+      <c r="AF26" s="229" t="s">
         <v>123</v>
       </c>
-      <c r="AE26" s="319" t="s">
+      <c r="AG26" s="229" t="s">
         <v>124</v>
       </c>
-      <c r="AF26" s="319" t="s">
+      <c r="AH26" s="229" t="s">
         <v>125</v>
       </c>
-      <c r="AG26" s="319" t="s">
+      <c r="AI26" s="230" t="s">
         <v>126</v>
-      </c>
-      <c r="AH26" s="319" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI26" s="320" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="21" customHeight="1" thickBot="1">
-      <c r="A27" s="401" t="s">
+      <c r="A27" s="290" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="291" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="291" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="402" t="s">
+      <c r="D27" s="291" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="402" t="s">
+      <c r="E27" s="291" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="402" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="402" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="400" t="s">
+      <c r="F27" s="289" t="s">
+        <v>545</v>
+      </c>
+      <c r="G27" s="291" t="s">
+        <v>546</v>
+      </c>
+      <c r="H27" s="291" t="s">
+        <v>547</v>
+      </c>
+      <c r="I27" s="291" t="s">
         <v>548</v>
       </c>
-      <c r="G27" s="402" t="s">
+      <c r="J27" s="290" t="s">
         <v>549</v>
       </c>
-      <c r="H27" s="402" t="s">
-        <v>550</v>
-      </c>
-      <c r="I27" s="402" t="s">
-        <v>551</v>
-      </c>
-      <c r="J27" s="401" t="s">
-        <v>552</v>
-      </c>
-      <c r="K27" s="403" t="s">
-        <v>548</v>
-      </c>
-      <c r="L27" s="317" t="s">
+      <c r="K27" s="292" t="s">
+        <v>545</v>
+      </c>
+      <c r="L27" s="227" t="s">
+        <v>323</v>
+      </c>
+      <c r="M27" s="227" t="s">
+        <v>324</v>
+      </c>
+      <c r="N27" s="227" t="s">
+        <v>325</v>
+      </c>
+      <c r="O27" s="227" t="s">
         <v>326</v>
       </c>
-      <c r="M27" s="317" t="s">
+      <c r="P27" s="227" t="s">
         <v>327</v>
       </c>
-      <c r="N27" s="317" t="s">
+      <c r="Q27" s="227" t="s">
         <v>328</v>
       </c>
-      <c r="O27" s="317" t="s">
+      <c r="R27" s="227" t="s">
         <v>329</v>
       </c>
-      <c r="P27" s="317" t="s">
+      <c r="S27" s="227" t="s">
         <v>330</v>
       </c>
-      <c r="Q27" s="317" t="s">
+      <c r="T27" s="227" t="s">
         <v>331</v>
       </c>
-      <c r="R27" s="317" t="s">
+      <c r="U27" s="227" t="s">
         <v>332</v>
       </c>
-      <c r="S27" s="317" t="s">
+      <c r="V27" s="227" t="s">
         <v>333</v>
       </c>
-      <c r="T27" s="317" t="s">
+      <c r="W27" s="227" t="s">
         <v>334</v>
       </c>
-      <c r="U27" s="317" t="s">
+      <c r="X27" s="227" t="s">
         <v>335</v>
       </c>
-      <c r="V27" s="317" t="s">
+      <c r="Y27" s="227" t="s">
         <v>336</v>
       </c>
-      <c r="W27" s="317" t="s">
+      <c r="Z27" s="227" t="s">
         <v>337</v>
       </c>
-      <c r="X27" s="317" t="s">
+      <c r="AA27" s="227" t="s">
         <v>338</v>
       </c>
-      <c r="Y27" s="317" t="s">
+      <c r="AB27" s="227" t="s">
         <v>339</v>
       </c>
-      <c r="Z27" s="317" t="s">
+      <c r="AC27" s="227" t="s">
         <v>340</v>
       </c>
-      <c r="AA27" s="317" t="s">
+      <c r="AD27" s="227" t="s">
         <v>341</v>
       </c>
-      <c r="AB27" s="317" t="s">
+      <c r="AE27" s="227" t="s">
         <v>342</v>
       </c>
-      <c r="AC27" s="317" t="s">
+      <c r="AF27" s="227" t="s">
         <v>343</v>
       </c>
-      <c r="AD27" s="317" t="s">
+      <c r="AG27" s="227" t="s">
         <v>344</v>
       </c>
-      <c r="AE27" s="317" t="s">
+      <c r="AH27" s="227" t="s">
         <v>345</v>
       </c>
-      <c r="AF27" s="317" t="s">
+      <c r="AI27" s="232" t="s">
         <v>346</v>
-      </c>
-      <c r="AG27" s="317" t="s">
-        <v>347</v>
-      </c>
-      <c r="AH27" s="317" t="s">
-        <v>348</v>
-      </c>
-      <c r="AI27" s="322" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="28" spans="1:35" s="80" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A28" s="404" t="s">
+      <c r="A28" s="369" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="405"/>
-      <c r="C28" s="405"/>
-      <c r="D28" s="406"/>
-      <c r="E28" s="409" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="407"/>
-      <c r="G28" s="394"/>
-      <c r="H28" s="399"/>
-      <c r="I28" s="409" t="s">
-        <v>64</v>
-      </c>
-      <c r="J28" s="408"/>
-      <c r="K28" s="410"/>
-      <c r="L28" s="333" t="s">
+      <c r="B28" s="370"/>
+      <c r="C28" s="370"/>
+      <c r="D28" s="371"/>
+      <c r="E28" s="295" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="293"/>
+      <c r="G28" s="367"/>
+      <c r="H28" s="368"/>
+      <c r="I28" s="295" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" s="294"/>
+      <c r="K28" s="296"/>
+      <c r="L28" s="243" t="s">
+        <v>347</v>
+      </c>
+      <c r="M28" s="244" t="s">
+        <v>348</v>
+      </c>
+      <c r="N28" s="244" t="s">
+        <v>349</v>
+      </c>
+      <c r="O28" s="244" t="s">
         <v>350</v>
       </c>
-      <c r="M28" s="334" t="s">
+      <c r="P28" s="245" t="s">
         <v>351</v>
       </c>
-      <c r="N28" s="334" t="s">
+      <c r="Q28" s="244" t="s">
         <v>352</v>
       </c>
-      <c r="O28" s="334" t="s">
+      <c r="R28" s="244" t="s">
         <v>353</v>
       </c>
-      <c r="P28" s="335" t="s">
+      <c r="S28" s="244" t="s">
         <v>354</v>
       </c>
-      <c r="Q28" s="334" t="s">
+      <c r="T28" s="244" t="s">
         <v>355</v>
       </c>
-      <c r="R28" s="334" t="s">
+      <c r="U28" s="244" t="s">
         <v>356</v>
       </c>
-      <c r="S28" s="334" t="s">
+      <c r="V28" s="244" t="s">
         <v>357</v>
       </c>
-      <c r="T28" s="334" t="s">
+      <c r="W28" s="245" t="s">
         <v>358</v>
       </c>
-      <c r="U28" s="334" t="s">
+      <c r="X28" s="244" t="s">
         <v>359</v>
       </c>
-      <c r="V28" s="334" t="s">
+      <c r="Y28" s="244" t="s">
         <v>360</v>
       </c>
-      <c r="W28" s="335" t="s">
+      <c r="Z28" s="244" t="s">
         <v>361</v>
       </c>
-      <c r="X28" s="334" t="s">
+      <c r="AA28" s="244" t="s">
         <v>362</v>
       </c>
-      <c r="Y28" s="334" t="s">
+      <c r="AB28" s="244" t="s">
         <v>363</v>
       </c>
-      <c r="Z28" s="334" t="s">
+      <c r="AC28" s="244" t="s">
         <v>364</v>
       </c>
-      <c r="AA28" s="334" t="s">
+      <c r="AD28" s="244" t="s">
         <v>365</v>
       </c>
-      <c r="AB28" s="334" t="s">
+      <c r="AE28" s="244" t="s">
         <v>366</v>
       </c>
-      <c r="AC28" s="334" t="s">
+      <c r="AF28" s="244" t="s">
         <v>367</v>
       </c>
-      <c r="AD28" s="334" t="s">
+      <c r="AG28" s="244" t="s">
         <v>368</v>
       </c>
-      <c r="AE28" s="334" t="s">
+      <c r="AH28" s="244" t="s">
         <v>369</v>
       </c>
-      <c r="AF28" s="334" t="s">
+      <c r="AI28" s="246" t="s">
         <v>370</v>
-      </c>
-      <c r="AG28" s="334" t="s">
-        <v>371</v>
-      </c>
-      <c r="AH28" s="334" t="s">
-        <v>372</v>
-      </c>
-      <c r="AI28" s="336" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="29" spans="1:35" s="143" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
@@ -8084,185 +8097,185 @@
       <c r="H29" s="139"/>
       <c r="I29" s="141"/>
       <c r="J29" s="142"/>
-      <c r="K29" s="350"/>
-      <c r="L29" s="318" t="s">
+      <c r="K29" s="260"/>
+      <c r="L29" s="228" t="s">
+        <v>115</v>
+      </c>
+      <c r="M29" s="229" t="s">
+        <v>116</v>
+      </c>
+      <c r="N29" s="229" t="s">
         <v>117</v>
       </c>
-      <c r="M29" s="319" t="s">
+      <c r="O29" s="229" t="s">
         <v>118</v>
       </c>
-      <c r="N29" s="319" t="s">
+      <c r="P29" s="229" t="s">
         <v>119</v>
       </c>
-      <c r="O29" s="319" t="s">
+      <c r="Q29" s="229" t="s">
         <v>120</v>
       </c>
-      <c r="P29" s="319" t="s">
+      <c r="R29" s="229" t="s">
         <v>121</v>
       </c>
-      <c r="Q29" s="319" t="s">
+      <c r="S29" s="229" t="s">
         <v>122</v>
       </c>
-      <c r="R29" s="319" t="s">
+      <c r="T29" s="229" t="s">
         <v>123</v>
       </c>
-      <c r="S29" s="319" t="s">
+      <c r="U29" s="229" t="s">
         <v>124</v>
       </c>
-      <c r="T29" s="319" t="s">
+      <c r="V29" s="229" t="s">
         <v>125</v>
       </c>
-      <c r="U29" s="319" t="s">
+      <c r="W29" s="230" t="s">
         <v>126</v>
       </c>
-      <c r="V29" s="319" t="s">
-        <v>127</v>
-      </c>
-      <c r="W29" s="320" t="s">
-        <v>128</v>
-      </c>
-      <c r="X29" s="318" t="s">
+      <c r="X29" s="228" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y29" s="229" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z29" s="229" t="s">
         <v>117</v>
       </c>
-      <c r="Y29" s="319" t="s">
+      <c r="AA29" s="229" t="s">
         <v>118</v>
       </c>
-      <c r="Z29" s="319" t="s">
+      <c r="AB29" s="229" t="s">
         <v>119</v>
       </c>
-      <c r="AA29" s="319" t="s">
+      <c r="AC29" s="229" t="s">
         <v>120</v>
       </c>
-      <c r="AB29" s="319" t="s">
+      <c r="AD29" s="229" t="s">
         <v>121</v>
       </c>
-      <c r="AC29" s="319" t="s">
+      <c r="AE29" s="229" t="s">
         <v>122</v>
       </c>
-      <c r="AD29" s="319" t="s">
+      <c r="AF29" s="229" t="s">
         <v>123</v>
       </c>
-      <c r="AE29" s="319" t="s">
+      <c r="AG29" s="229" t="s">
         <v>124</v>
       </c>
-      <c r="AF29" s="319" t="s">
+      <c r="AH29" s="229" t="s">
         <v>125</v>
       </c>
-      <c r="AG29" s="319" t="s">
+      <c r="AI29" s="230" t="s">
         <v>126</v>
-      </c>
-      <c r="AH29" s="319" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI29" s="320" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A30" s="412" t="s">
+      <c r="A30" s="298" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="299" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="299" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="413" t="s">
+      <c r="D30" s="299" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="413" t="s">
+      <c r="E30" s="299" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="413" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="413" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" s="411" t="s">
+      <c r="F30" s="297" t="s">
+        <v>550</v>
+      </c>
+      <c r="G30" s="299" t="s">
+        <v>551</v>
+      </c>
+      <c r="H30" s="299" t="s">
+        <v>552</v>
+      </c>
+      <c r="I30" s="299" t="s">
         <v>553</v>
       </c>
-      <c r="G30" s="413" t="s">
+      <c r="J30" s="298" t="s">
         <v>554</v>
       </c>
-      <c r="H30" s="413" t="s">
-        <v>555</v>
-      </c>
-      <c r="I30" s="413" t="s">
-        <v>556</v>
-      </c>
-      <c r="J30" s="412" t="s">
-        <v>557</v>
-      </c>
-      <c r="K30" s="414" t="s">
-        <v>553</v>
-      </c>
-      <c r="L30" s="317" t="s">
+      <c r="K30" s="300" t="s">
+        <v>550</v>
+      </c>
+      <c r="L30" s="227" t="s">
+        <v>371</v>
+      </c>
+      <c r="M30" s="227" t="s">
+        <v>372</v>
+      </c>
+      <c r="N30" s="227" t="s">
+        <v>373</v>
+      </c>
+      <c r="O30" s="227" t="s">
         <v>374</v>
       </c>
-      <c r="M30" s="317" t="s">
+      <c r="P30" s="227" t="s">
         <v>375</v>
       </c>
-      <c r="N30" s="317" t="s">
+      <c r="Q30" s="227" t="s">
         <v>376</v>
       </c>
-      <c r="O30" s="317" t="s">
+      <c r="R30" s="227" t="s">
         <v>377</v>
       </c>
-      <c r="P30" s="317" t="s">
+      <c r="S30" s="227" t="s">
         <v>378</v>
       </c>
-      <c r="Q30" s="317" t="s">
+      <c r="T30" s="227" t="s">
         <v>379</v>
       </c>
-      <c r="R30" s="317" t="s">
+      <c r="U30" s="227" t="s">
         <v>380</v>
       </c>
-      <c r="S30" s="317" t="s">
+      <c r="V30" s="227" t="s">
         <v>381</v>
       </c>
-      <c r="T30" s="317" t="s">
+      <c r="W30" s="227" t="s">
         <v>382</v>
       </c>
-      <c r="U30" s="317" t="s">
+      <c r="X30" s="227" t="s">
         <v>383</v>
       </c>
-      <c r="V30" s="317" t="s">
+      <c r="Y30" s="227" t="s">
         <v>384</v>
       </c>
-      <c r="W30" s="317" t="s">
+      <c r="Z30" s="227" t="s">
         <v>385</v>
       </c>
-      <c r="X30" s="317" t="s">
+      <c r="AA30" s="227" t="s">
         <v>386</v>
       </c>
-      <c r="Y30" s="317" t="s">
+      <c r="AB30" s="227" t="s">
         <v>387</v>
       </c>
-      <c r="Z30" s="317" t="s">
+      <c r="AC30" s="227" t="s">
         <v>388</v>
       </c>
-      <c r="AA30" s="317" t="s">
+      <c r="AD30" s="227" t="s">
         <v>389</v>
       </c>
-      <c r="AB30" s="317" t="s">
+      <c r="AE30" s="227" t="s">
         <v>390</v>
       </c>
-      <c r="AC30" s="317" t="s">
+      <c r="AF30" s="227" t="s">
         <v>391</v>
       </c>
-      <c r="AD30" s="317" t="s">
+      <c r="AG30" s="227" t="s">
         <v>392</v>
       </c>
-      <c r="AE30" s="317" t="s">
+      <c r="AH30" s="227" t="s">
         <v>393</v>
       </c>
-      <c r="AF30" s="317" t="s">
+      <c r="AI30" s="232" t="s">
         <v>394</v>
-      </c>
-      <c r="AG30" s="317" t="s">
-        <v>395</v>
-      </c>
-      <c r="AH30" s="317" t="s">
-        <v>396</v>
-      </c>
-      <c r="AI30" s="322" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="24" customHeight="1" thickTop="1" thickBot="1">
@@ -8273,216 +8286,216 @@
       <c r="C31" s="105"/>
       <c r="D31" s="106"/>
       <c r="E31" s="101" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F31" s="107"/>
       <c r="G31" s="105"/>
       <c r="H31" s="106"/>
       <c r="I31" s="101" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J31" s="108"/>
-      <c r="K31" s="350"/>
-      <c r="L31" s="333" t="s">
+      <c r="K31" s="260"/>
+      <c r="L31" s="243" t="s">
+        <v>395</v>
+      </c>
+      <c r="M31" s="244" t="s">
+        <v>396</v>
+      </c>
+      <c r="N31" s="244" t="s">
+        <v>397</v>
+      </c>
+      <c r="O31" s="244" t="s">
         <v>398</v>
       </c>
-      <c r="M31" s="334" t="s">
+      <c r="P31" s="245" t="s">
         <v>399</v>
       </c>
-      <c r="N31" s="334" t="s">
+      <c r="Q31" s="244" t="s">
         <v>400</v>
       </c>
-      <c r="O31" s="334" t="s">
+      <c r="R31" s="244" t="s">
         <v>401</v>
       </c>
-      <c r="P31" s="335" t="s">
+      <c r="S31" s="244" t="s">
         <v>402</v>
       </c>
-      <c r="Q31" s="334" t="s">
+      <c r="T31" s="244" t="s">
         <v>403</v>
       </c>
-      <c r="R31" s="334" t="s">
+      <c r="U31" s="244" t="s">
         <v>404</v>
       </c>
-      <c r="S31" s="334" t="s">
+      <c r="V31" s="244" t="s">
         <v>405</v>
       </c>
-      <c r="T31" s="334" t="s">
+      <c r="W31" s="245" t="s">
         <v>406</v>
       </c>
-      <c r="U31" s="334" t="s">
+      <c r="X31" s="244" t="s">
         <v>407</v>
       </c>
-      <c r="V31" s="334" t="s">
+      <c r="Y31" s="244" t="s">
         <v>408</v>
       </c>
-      <c r="W31" s="335" t="s">
+      <c r="Z31" s="244" t="s">
         <v>409</v>
       </c>
-      <c r="X31" s="334" t="s">
+      <c r="AA31" s="244" t="s">
         <v>410</v>
       </c>
-      <c r="Y31" s="334" t="s">
+      <c r="AB31" s="244" t="s">
         <v>411</v>
       </c>
-      <c r="Z31" s="334" t="s">
+      <c r="AC31" s="244" t="s">
         <v>412</v>
       </c>
-      <c r="AA31" s="334" t="s">
+      <c r="AD31" s="244" t="s">
         <v>413</v>
       </c>
-      <c r="AB31" s="334" t="s">
+      <c r="AE31" s="244" t="s">
         <v>414</v>
       </c>
-      <c r="AC31" s="334" t="s">
+      <c r="AF31" s="244" t="s">
         <v>415</v>
       </c>
-      <c r="AD31" s="334" t="s">
+      <c r="AG31" s="244" t="s">
         <v>416</v>
       </c>
-      <c r="AE31" s="334" t="s">
+      <c r="AH31" s="244" t="s">
         <v>417</v>
       </c>
-      <c r="AF31" s="334" t="s">
+      <c r="AI31" s="246" t="s">
         <v>418</v>
-      </c>
-      <c r="AG31" s="334" t="s">
-        <v>419</v>
-      </c>
-      <c r="AH31" s="334" t="s">
-        <v>420</v>
-      </c>
-      <c r="AI31" s="336" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="32" spans="1:35" s="84" customFormat="1" ht="32.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A32" s="416" t="s">
+      <c r="A32" s="454" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="417"/>
-      <c r="C32" s="417"/>
-      <c r="D32" s="418"/>
-      <c r="E32" s="421" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="420"/>
-      <c r="G32" s="415"/>
-      <c r="H32" s="419"/>
-      <c r="I32" s="422" t="s">
-        <v>558</v>
+      <c r="B32" s="455"/>
+      <c r="C32" s="455"/>
+      <c r="D32" s="456"/>
+      <c r="E32" s="302" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="301"/>
+      <c r="G32" s="457"/>
+      <c r="H32" s="458"/>
+      <c r="I32" s="303" t="s">
+        <v>555</v>
       </c>
       <c r="J32" s="102"/>
-      <c r="K32" s="351"/>
-      <c r="L32" s="331" t="s">
+      <c r="K32" s="261"/>
+      <c r="L32" s="241" t="s">
+        <v>419</v>
+      </c>
+      <c r="M32" s="242" t="s">
+        <v>420</v>
+      </c>
+      <c r="N32" s="242" t="s">
+        <v>421</v>
+      </c>
+      <c r="O32" s="242" t="s">
         <v>422</v>
       </c>
-      <c r="M32" s="332" t="s">
+      <c r="P32" s="242" t="s">
         <v>423</v>
       </c>
-      <c r="N32" s="332" t="s">
+      <c r="Q32" s="242" t="s">
         <v>424</v>
       </c>
-      <c r="O32" s="332" t="s">
+      <c r="R32" s="242" t="s">
         <v>425</v>
       </c>
-      <c r="P32" s="332" t="s">
+      <c r="S32" s="242" t="s">
         <v>426</v>
       </c>
-      <c r="Q32" s="332" t="s">
+      <c r="T32" s="242" t="s">
         <v>427</v>
       </c>
-      <c r="R32" s="332" t="s">
+      <c r="U32" s="242" t="s">
         <v>428</v>
       </c>
-      <c r="S32" s="332" t="s">
+      <c r="V32" s="242" t="s">
         <v>429</v>
       </c>
-      <c r="T32" s="332" t="s">
+      <c r="W32" s="242" t="s">
         <v>430</v>
       </c>
-      <c r="U32" s="332" t="s">
+      <c r="X32" s="231" t="s">
         <v>431</v>
       </c>
-      <c r="V32" s="332" t="s">
+      <c r="Y32" s="231" t="s">
         <v>432</v>
       </c>
-      <c r="W32" s="332" t="s">
+      <c r="Z32" s="231" t="s">
         <v>433</v>
       </c>
-      <c r="X32" s="321" t="s">
+      <c r="AA32" s="231" t="s">
         <v>434</v>
       </c>
-      <c r="Y32" s="321" t="s">
+      <c r="AB32" s="231" t="s">
         <v>435</v>
       </c>
-      <c r="Z32" s="321" t="s">
+      <c r="AC32" s="231" t="s">
         <v>436</v>
       </c>
-      <c r="AA32" s="321" t="s">
+      <c r="AD32" s="231" t="s">
         <v>437</v>
       </c>
-      <c r="AB32" s="321" t="s">
+      <c r="AE32" s="231" t="s">
         <v>438</v>
       </c>
-      <c r="AC32" s="321" t="s">
+      <c r="AF32" s="231" t="s">
         <v>439</v>
       </c>
-      <c r="AD32" s="321" t="s">
+      <c r="AG32" s="231" t="s">
         <v>440</v>
       </c>
-      <c r="AE32" s="321" t="s">
+      <c r="AH32" s="231" t="s">
         <v>441</v>
       </c>
-      <c r="AF32" s="321" t="s">
+      <c r="AI32" s="234" t="s">
         <v>442</v>
-      </c>
-      <c r="AG32" s="321" t="s">
-        <v>443</v>
-      </c>
-      <c r="AH32" s="321" t="s">
-        <v>444</v>
-      </c>
-      <c r="AI32" s="324" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="33" spans="1:35" s="8" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
       <c r="A33" s="17"/>
-      <c r="B33" s="251"/>
-      <c r="C33" s="251"/>
-      <c r="D33" s="251"/>
-      <c r="E33" s="251"/>
-      <c r="F33" s="251"/>
-      <c r="G33" s="251"/>
+      <c r="B33" s="419"/>
+      <c r="C33" s="419"/>
+      <c r="D33" s="419"/>
+      <c r="E33" s="419"/>
+      <c r="F33" s="419"/>
+      <c r="G33" s="419"/>
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
       <c r="K33" s="18"/>
-      <c r="L33" s="290"/>
-      <c r="M33" s="290"/>
-      <c r="N33" s="290"/>
-      <c r="O33" s="290"/>
-      <c r="P33" s="290"/>
-      <c r="Q33" s="290"/>
-      <c r="R33" s="290"/>
-      <c r="S33" s="290"/>
-      <c r="T33" s="290"/>
-      <c r="U33" s="290"/>
-      <c r="V33" s="290"/>
-      <c r="W33" s="291"/>
-      <c r="X33" s="290"/>
-      <c r="Y33" s="290"/>
-      <c r="Z33" s="290"/>
-      <c r="AA33" s="290"/>
-      <c r="AB33" s="290"/>
-      <c r="AC33" s="290"/>
-      <c r="AD33" s="290"/>
-      <c r="AE33" s="290"/>
-      <c r="AF33" s="290"/>
-      <c r="AG33" s="290"/>
-      <c r="AH33" s="290"/>
-      <c r="AI33" s="291"/>
+      <c r="L33" s="200"/>
+      <c r="M33" s="200"/>
+      <c r="N33" s="200"/>
+      <c r="O33" s="200"/>
+      <c r="P33" s="200"/>
+      <c r="Q33" s="200"/>
+      <c r="R33" s="200"/>
+      <c r="S33" s="200"/>
+      <c r="T33" s="200"/>
+      <c r="U33" s="200"/>
+      <c r="V33" s="200"/>
+      <c r="W33" s="201"/>
+      <c r="X33" s="200"/>
+      <c r="Y33" s="200"/>
+      <c r="Z33" s="200"/>
+      <c r="AA33" s="200"/>
+      <c r="AB33" s="200"/>
+      <c r="AC33" s="200"/>
+      <c r="AD33" s="200"/>
+      <c r="AE33" s="200"/>
+      <c r="AF33" s="200"/>
+      <c r="AG33" s="200"/>
+      <c r="AH33" s="200"/>
+      <c r="AI33" s="201"/>
     </row>
     <row r="34" spans="1:35" ht="22.5" customHeight="1" thickBot="1">
       <c r="A34" s="160"/>
@@ -8496,108 +8509,108 @@
       <c r="I34" s="161"/>
       <c r="J34" s="161"/>
       <c r="K34" s="161"/>
-      <c r="L34" s="310"/>
-      <c r="M34" s="310"/>
-      <c r="N34" s="310"/>
-      <c r="O34" s="310"/>
-      <c r="P34" s="310"/>
-      <c r="Q34" s="310"/>
-      <c r="R34" s="310"/>
-      <c r="S34" s="310"/>
-      <c r="T34" s="310"/>
-      <c r="U34" s="310"/>
-      <c r="V34" s="310"/>
-      <c r="W34" s="311"/>
-      <c r="X34" s="310"/>
-      <c r="Y34" s="310"/>
-      <c r="Z34" s="310"/>
-      <c r="AA34" s="310"/>
-      <c r="AB34" s="310"/>
-      <c r="AC34" s="310"/>
-      <c r="AD34" s="310"/>
-      <c r="AE34" s="310"/>
-      <c r="AF34" s="310"/>
-      <c r="AG34" s="310"/>
-      <c r="AH34" s="310"/>
-      <c r="AI34" s="311"/>
+      <c r="L34" s="220"/>
+      <c r="M34" s="220"/>
+      <c r="N34" s="220"/>
+      <c r="O34" s="220"/>
+      <c r="P34" s="220"/>
+      <c r="Q34" s="220"/>
+      <c r="R34" s="220"/>
+      <c r="S34" s="220"/>
+      <c r="T34" s="220"/>
+      <c r="U34" s="220"/>
+      <c r="V34" s="220"/>
+      <c r="W34" s="221"/>
+      <c r="X34" s="220"/>
+      <c r="Y34" s="220"/>
+      <c r="Z34" s="220"/>
+      <c r="AA34" s="220"/>
+      <c r="AB34" s="220"/>
+      <c r="AC34" s="220"/>
+      <c r="AD34" s="220"/>
+      <c r="AE34" s="220"/>
+      <c r="AF34" s="220"/>
+      <c r="AG34" s="220"/>
+      <c r="AH34" s="220"/>
+      <c r="AI34" s="221"/>
     </row>
     <row r="35" spans="1:35" s="80" customFormat="1" ht="24" customHeight="1" thickBot="1">
       <c r="A35" s="147"/>
-      <c r="B35" s="261" t="s">
+      <c r="B35" s="451" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="262"/>
-      <c r="D35" s="262"/>
-      <c r="E35" s="263"/>
+      <c r="C35" s="452"/>
+      <c r="D35" s="452"/>
+      <c r="E35" s="453"/>
       <c r="F35" s="75"/>
-      <c r="G35" s="219" t="s">
+      <c r="G35" s="435" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="220"/>
-      <c r="I35" s="220"/>
+      <c r="H35" s="436"/>
+      <c r="I35" s="436"/>
       <c r="J35" s="148"/>
       <c r="K35" s="162"/>
-      <c r="L35" s="307"/>
-      <c r="M35" s="308"/>
-      <c r="N35" s="308"/>
-      <c r="O35" s="308"/>
-      <c r="P35" s="308"/>
-      <c r="Q35" s="308"/>
-      <c r="R35" s="308"/>
-      <c r="S35" s="308"/>
-      <c r="T35" s="308"/>
-      <c r="U35" s="308"/>
-      <c r="V35" s="308"/>
-      <c r="W35" s="309"/>
-      <c r="X35" s="307"/>
-      <c r="Y35" s="308"/>
-      <c r="Z35" s="308"/>
-      <c r="AA35" s="308"/>
-      <c r="AB35" s="308"/>
-      <c r="AC35" s="308"/>
-      <c r="AD35" s="308"/>
-      <c r="AE35" s="308"/>
-      <c r="AF35" s="308"/>
-      <c r="AG35" s="308"/>
-      <c r="AH35" s="308"/>
-      <c r="AI35" s="309"/>
+      <c r="L35" s="217"/>
+      <c r="M35" s="218"/>
+      <c r="N35" s="218"/>
+      <c r="O35" s="218"/>
+      <c r="P35" s="218"/>
+      <c r="Q35" s="218"/>
+      <c r="R35" s="218"/>
+      <c r="S35" s="218"/>
+      <c r="T35" s="218"/>
+      <c r="U35" s="218"/>
+      <c r="V35" s="218"/>
+      <c r="W35" s="219"/>
+      <c r="X35" s="217"/>
+      <c r="Y35" s="218"/>
+      <c r="Z35" s="218"/>
+      <c r="AA35" s="218"/>
+      <c r="AB35" s="218"/>
+      <c r="AC35" s="218"/>
+      <c r="AD35" s="218"/>
+      <c r="AE35" s="218"/>
+      <c r="AF35" s="218"/>
+      <c r="AG35" s="218"/>
+      <c r="AH35" s="218"/>
+      <c r="AI35" s="219"/>
     </row>
     <row r="36" spans="1:35" ht="22.5" customHeight="1" thickBot="1">
       <c r="A36" s="32"/>
-      <c r="B36" s="195"/>
-      <c r="C36" s="196"/>
-      <c r="D36" s="197"/>
+      <c r="B36" s="428"/>
+      <c r="C36" s="429"/>
+      <c r="D36" s="430"/>
       <c r="E36" s="33"/>
       <c r="F36" s="65"/>
-      <c r="G36" s="195"/>
-      <c r="H36" s="196"/>
-      <c r="I36" s="197"/>
+      <c r="G36" s="428"/>
+      <c r="H36" s="429"/>
+      <c r="I36" s="430"/>
       <c r="J36" s="51"/>
       <c r="K36" s="163"/>
-      <c r="L36" s="292"/>
-      <c r="M36" s="292"/>
-      <c r="N36" s="292"/>
-      <c r="O36" s="292"/>
-      <c r="P36" s="292"/>
-      <c r="Q36" s="292"/>
-      <c r="R36" s="292"/>
-      <c r="S36" s="292"/>
-      <c r="T36" s="292"/>
-      <c r="U36" s="292"/>
-      <c r="V36" s="292"/>
-      <c r="W36" s="293"/>
-      <c r="X36" s="292"/>
-      <c r="Y36" s="292"/>
-      <c r="Z36" s="292"/>
-      <c r="AA36" s="292"/>
-      <c r="AB36" s="292"/>
-      <c r="AC36" s="292"/>
-      <c r="AD36" s="292"/>
-      <c r="AE36" s="292"/>
-      <c r="AF36" s="292"/>
-      <c r="AG36" s="292"/>
-      <c r="AH36" s="292"/>
-      <c r="AI36" s="293"/>
+      <c r="L36" s="202"/>
+      <c r="M36" s="202"/>
+      <c r="N36" s="202"/>
+      <c r="O36" s="202"/>
+      <c r="P36" s="202"/>
+      <c r="Q36" s="202"/>
+      <c r="R36" s="202"/>
+      <c r="S36" s="202"/>
+      <c r="T36" s="202"/>
+      <c r="U36" s="202"/>
+      <c r="V36" s="202"/>
+      <c r="W36" s="203"/>
+      <c r="X36" s="202"/>
+      <c r="Y36" s="202"/>
+      <c r="Z36" s="202"/>
+      <c r="AA36" s="202"/>
+      <c r="AB36" s="202"/>
+      <c r="AC36" s="202"/>
+      <c r="AD36" s="202"/>
+      <c r="AE36" s="202"/>
+      <c r="AF36" s="202"/>
+      <c r="AG36" s="202"/>
+      <c r="AH36" s="202"/>
+      <c r="AI36" s="203"/>
     </row>
     <row r="37" spans="1:35" ht="33" customHeight="1" thickBot="1">
       <c r="A37" s="172" t="s">
@@ -8610,7 +8623,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="89" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E37" s="90" t="s">
         <v>28</v>
@@ -8623,83 +8636,83 @@
         <v>3</v>
       </c>
       <c r="I37" s="89" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J37" s="90" t="s">
         <v>28</v>
       </c>
       <c r="K37" s="164"/>
-      <c r="L37" s="318" t="s">
+      <c r="L37" s="228" t="s">
+        <v>115</v>
+      </c>
+      <c r="M37" s="229" t="s">
+        <v>116</v>
+      </c>
+      <c r="N37" s="229" t="s">
         <v>117</v>
       </c>
-      <c r="M37" s="319" t="s">
+      <c r="O37" s="229" t="s">
         <v>118</v>
       </c>
-      <c r="N37" s="319" t="s">
+      <c r="P37" s="229" t="s">
         <v>119</v>
       </c>
-      <c r="O37" s="319" t="s">
+      <c r="Q37" s="229" t="s">
         <v>120</v>
       </c>
-      <c r="P37" s="319" t="s">
+      <c r="R37" s="229" t="s">
         <v>121</v>
       </c>
-      <c r="Q37" s="319" t="s">
+      <c r="S37" s="229" t="s">
         <v>122</v>
       </c>
-      <c r="R37" s="319" t="s">
+      <c r="T37" s="229" t="s">
         <v>123</v>
       </c>
-      <c r="S37" s="319" t="s">
+      <c r="U37" s="229" t="s">
         <v>124</v>
       </c>
-      <c r="T37" s="319" t="s">
+      <c r="V37" s="229" t="s">
         <v>125</v>
       </c>
-      <c r="U37" s="319" t="s">
+      <c r="W37" s="230" t="s">
         <v>126</v>
       </c>
-      <c r="V37" s="319" t="s">
-        <v>127</v>
-      </c>
-      <c r="W37" s="320" t="s">
-        <v>128</v>
-      </c>
-      <c r="X37" s="318" t="s">
+      <c r="X37" s="228" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y37" s="229" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z37" s="229" t="s">
         <v>117</v>
       </c>
-      <c r="Y37" s="319" t="s">
+      <c r="AA37" s="229" t="s">
         <v>118</v>
       </c>
-      <c r="Z37" s="319" t="s">
+      <c r="AB37" s="229" t="s">
         <v>119</v>
       </c>
-      <c r="AA37" s="319" t="s">
+      <c r="AC37" s="229" t="s">
         <v>120</v>
       </c>
-      <c r="AB37" s="319" t="s">
+      <c r="AD37" s="229" t="s">
         <v>121</v>
       </c>
-      <c r="AC37" s="319" t="s">
+      <c r="AE37" s="229" t="s">
         <v>122</v>
       </c>
-      <c r="AD37" s="319" t="s">
+      <c r="AF37" s="229" t="s">
         <v>123</v>
       </c>
-      <c r="AE37" s="319" t="s">
+      <c r="AG37" s="229" t="s">
         <v>124</v>
       </c>
-      <c r="AF37" s="319" t="s">
+      <c r="AH37" s="229" t="s">
         <v>125</v>
       </c>
-      <c r="AG37" s="319" t="s">
+      <c r="AI37" s="230" t="s">
         <v>126</v>
-      </c>
-      <c r="AH37" s="319" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI37" s="320" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:35" ht="1.5" customHeight="1" thickTop="1" thickBot="1">
@@ -8709,10 +8722,10 @@
       <c r="B38" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="198" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="199"/>
+      <c r="C38" s="446" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="447"/>
       <c r="E38" s="151" t="s">
         <v>16</v>
       </c>
@@ -8720,677 +8733,677 @@
       <c r="G38" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="H38" s="215" t="s">
-        <v>54</v>
-      </c>
-      <c r="I38" s="216"/>
+      <c r="H38" s="431" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" s="432"/>
       <c r="J38" s="153" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K38" s="165"/>
-      <c r="L38" s="294"/>
-      <c r="M38" s="294"/>
-      <c r="N38" s="294"/>
-      <c r="O38" s="294"/>
-      <c r="P38" s="294"/>
-      <c r="Q38" s="294"/>
-      <c r="R38" s="294"/>
-      <c r="S38" s="294"/>
-      <c r="T38" s="294"/>
-      <c r="U38" s="294"/>
-      <c r="V38" s="294"/>
-      <c r="W38" s="295"/>
-      <c r="X38" s="288"/>
-      <c r="Y38" s="288"/>
-      <c r="Z38" s="288"/>
-      <c r="AA38" s="288"/>
-      <c r="AB38" s="288"/>
-      <c r="AC38" s="288"/>
-      <c r="AD38" s="288"/>
-      <c r="AE38" s="288"/>
-      <c r="AF38" s="288"/>
-      <c r="AG38" s="288"/>
-      <c r="AH38" s="288"/>
-      <c r="AI38" s="288"/>
+      <c r="L38" s="204"/>
+      <c r="M38" s="204"/>
+      <c r="N38" s="204"/>
+      <c r="O38" s="204"/>
+      <c r="P38" s="204"/>
+      <c r="Q38" s="204"/>
+      <c r="R38" s="204"/>
+      <c r="S38" s="204"/>
+      <c r="T38" s="204"/>
+      <c r="U38" s="204"/>
+      <c r="V38" s="204"/>
+      <c r="W38" s="205"/>
+      <c r="X38" s="198"/>
+      <c r="Y38" s="198"/>
+      <c r="Z38" s="198"/>
+      <c r="AA38" s="198"/>
+      <c r="AB38" s="198"/>
+      <c r="AC38" s="198"/>
+      <c r="AD38" s="198"/>
+      <c r="AE38" s="198"/>
+      <c r="AF38" s="198"/>
+      <c r="AG38" s="198"/>
+      <c r="AH38" s="198"/>
+      <c r="AI38" s="198"/>
     </row>
     <row r="39" spans="1:35" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A39" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="426" t="s">
+      <c r="B39" s="306" t="s">
+        <v>556</v>
+      </c>
+      <c r="C39" s="306" t="s">
+        <v>557</v>
+      </c>
+      <c r="D39" s="306" t="s">
+        <v>558</v>
+      </c>
+      <c r="E39" s="306" t="s">
         <v>559</v>
       </c>
-      <c r="C39" s="426" t="s">
-        <v>560</v>
-      </c>
-      <c r="D39" s="426" t="s">
-        <v>561</v>
-      </c>
-      <c r="E39" s="426" t="s">
-        <v>562</v>
-      </c>
-      <c r="F39" s="425"/>
-      <c r="G39" s="430"/>
-      <c r="H39" s="431"/>
-      <c r="I39" s="431"/>
-      <c r="J39" s="432"/>
+      <c r="F39" s="305"/>
+      <c r="G39" s="354"/>
+      <c r="H39" s="355"/>
+      <c r="I39" s="355"/>
+      <c r="J39" s="356"/>
       <c r="K39" s="165"/>
-      <c r="L39" s="294"/>
-      <c r="M39" s="294"/>
-      <c r="N39" s="294"/>
-      <c r="O39" s="294"/>
-      <c r="P39" s="294"/>
-      <c r="Q39" s="294"/>
-      <c r="R39" s="294"/>
-      <c r="S39" s="294"/>
-      <c r="T39" s="294"/>
-      <c r="U39" s="294"/>
-      <c r="V39" s="294"/>
-      <c r="W39" s="295"/>
-      <c r="X39" s="294"/>
-      <c r="Y39" s="294"/>
-      <c r="Z39" s="294"/>
-      <c r="AA39" s="294"/>
-      <c r="AB39" s="294"/>
-      <c r="AC39" s="294"/>
-      <c r="AD39" s="294"/>
-      <c r="AE39" s="294"/>
-      <c r="AF39" s="294"/>
-      <c r="AG39" s="294"/>
-      <c r="AH39" s="294"/>
-      <c r="AI39" s="295"/>
+      <c r="L39" s="204"/>
+      <c r="M39" s="204"/>
+      <c r="N39" s="204"/>
+      <c r="O39" s="204"/>
+      <c r="P39" s="204"/>
+      <c r="Q39" s="204"/>
+      <c r="R39" s="204"/>
+      <c r="S39" s="204"/>
+      <c r="T39" s="204"/>
+      <c r="U39" s="204"/>
+      <c r="V39" s="204"/>
+      <c r="W39" s="205"/>
+      <c r="X39" s="204"/>
+      <c r="Y39" s="204"/>
+      <c r="Z39" s="204"/>
+      <c r="AA39" s="204"/>
+      <c r="AB39" s="204"/>
+      <c r="AC39" s="204"/>
+      <c r="AD39" s="204"/>
+      <c r="AE39" s="204"/>
+      <c r="AF39" s="204"/>
+      <c r="AG39" s="204"/>
+      <c r="AH39" s="204"/>
+      <c r="AI39" s="205"/>
     </row>
     <row r="40" spans="1:35" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A40" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="426" t="s">
+      <c r="B40" s="306" t="s">
+        <v>560</v>
+      </c>
+      <c r="C40" s="306" t="s">
+        <v>561</v>
+      </c>
+      <c r="D40" s="306" t="s">
+        <v>562</v>
+      </c>
+      <c r="E40" s="306" t="s">
         <v>563</v>
       </c>
-      <c r="C40" s="426" t="s">
+      <c r="F40" s="304"/>
+      <c r="G40" s="306" t="s">
         <v>564</v>
       </c>
-      <c r="D40" s="426" t="s">
+      <c r="H40" s="306" t="s">
         <v>565</v>
       </c>
-      <c r="E40" s="426" t="s">
+      <c r="I40" s="306" t="s">
         <v>566</v>
       </c>
-      <c r="F40" s="424"/>
-      <c r="G40" s="426" t="s">
+      <c r="J40" s="306" t="s">
         <v>567</v>
       </c>
-      <c r="H40" s="426" t="s">
-        <v>568</v>
-      </c>
-      <c r="I40" s="426" t="s">
-        <v>569</v>
-      </c>
-      <c r="J40" s="426" t="s">
-        <v>570</v>
-      </c>
       <c r="K40" s="165"/>
-      <c r="L40" s="333" t="s">
+      <c r="L40" s="243" t="s">
+        <v>443</v>
+      </c>
+      <c r="M40" s="244" t="s">
+        <v>444</v>
+      </c>
+      <c r="N40" s="244" t="s">
+        <v>445</v>
+      </c>
+      <c r="O40" s="244" t="s">
         <v>446</v>
       </c>
-      <c r="M40" s="334" t="s">
+      <c r="P40" s="245" t="s">
         <v>447</v>
       </c>
-      <c r="N40" s="334" t="s">
+      <c r="Q40" s="244" t="s">
         <v>448</v>
       </c>
-      <c r="O40" s="334" t="s">
+      <c r="R40" s="244" t="s">
         <v>449</v>
       </c>
-      <c r="P40" s="335" t="s">
+      <c r="S40" s="244" t="s">
         <v>450</v>
       </c>
-      <c r="Q40" s="334" t="s">
+      <c r="T40" s="244" t="s">
         <v>451</v>
       </c>
-      <c r="R40" s="334" t="s">
+      <c r="U40" s="244" t="s">
         <v>452</v>
       </c>
-      <c r="S40" s="334" t="s">
+      <c r="V40" s="244" t="s">
         <v>453</v>
       </c>
-      <c r="T40" s="334" t="s">
+      <c r="W40" s="245" t="s">
         <v>454</v>
       </c>
-      <c r="U40" s="334" t="s">
+      <c r="X40" s="244" t="s">
         <v>455</v>
       </c>
-      <c r="V40" s="334" t="s">
+      <c r="Y40" s="244" t="s">
         <v>456</v>
       </c>
-      <c r="W40" s="335" t="s">
+      <c r="Z40" s="244" t="s">
         <v>457</v>
       </c>
-      <c r="X40" s="334" t="s">
+      <c r="AA40" s="244" t="s">
         <v>458</v>
       </c>
-      <c r="Y40" s="334" t="s">
+      <c r="AB40" s="244" t="s">
         <v>459</v>
       </c>
-      <c r="Z40" s="334" t="s">
+      <c r="AC40" s="244" t="s">
         <v>460</v>
       </c>
-      <c r="AA40" s="334" t="s">
+      <c r="AD40" s="244" t="s">
         <v>461</v>
       </c>
-      <c r="AB40" s="334" t="s">
+      <c r="AE40" s="244" t="s">
         <v>462</v>
       </c>
-      <c r="AC40" s="334" t="s">
+      <c r="AF40" s="244" t="s">
         <v>463</v>
       </c>
-      <c r="AD40" s="334" t="s">
+      <c r="AG40" s="244" t="s">
         <v>464</v>
       </c>
-      <c r="AE40" s="334" t="s">
+      <c r="AH40" s="244" t="s">
         <v>465</v>
       </c>
-      <c r="AF40" s="334" t="s">
+      <c r="AI40" s="246" t="s">
         <v>466</v>
-      </c>
-      <c r="AG40" s="334" t="s">
-        <v>467</v>
-      </c>
-      <c r="AH40" s="334" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI40" s="336" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="41" spans="1:35" ht="27.75" customHeight="1" thickTop="1">
       <c r="A41" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="427" t="s">
+      <c r="B41" s="307" t="s">
+        <v>568</v>
+      </c>
+      <c r="C41" s="307" t="s">
+        <v>569</v>
+      </c>
+      <c r="D41" s="307" t="s">
+        <v>570</v>
+      </c>
+      <c r="E41" s="307" t="s">
         <v>571</v>
       </c>
-      <c r="C41" s="427" t="s">
-        <v>572</v>
-      </c>
-      <c r="D41" s="427" t="s">
-        <v>573</v>
-      </c>
-      <c r="E41" s="427" t="s">
-        <v>574</v>
-      </c>
-      <c r="F41" s="425"/>
-      <c r="G41" s="423"/>
-      <c r="H41" s="428"/>
-      <c r="I41" s="428"/>
-      <c r="J41" s="429"/>
+      <c r="F41" s="305"/>
+      <c r="G41" s="459"/>
+      <c r="H41" s="460"/>
+      <c r="I41" s="460"/>
+      <c r="J41" s="461"/>
       <c r="K41" s="165"/>
-      <c r="L41" s="294"/>
-      <c r="M41" s="294"/>
-      <c r="N41" s="294"/>
-      <c r="O41" s="294"/>
-      <c r="P41" s="294"/>
-      <c r="Q41" s="294"/>
-      <c r="R41" s="294"/>
-      <c r="S41" s="294"/>
-      <c r="T41" s="294"/>
-      <c r="U41" s="294"/>
-      <c r="V41" s="294"/>
-      <c r="W41" s="295"/>
-      <c r="X41" s="294"/>
-      <c r="Y41" s="294"/>
-      <c r="Z41" s="294"/>
-      <c r="AA41" s="294"/>
-      <c r="AB41" s="294"/>
-      <c r="AC41" s="294"/>
-      <c r="AD41" s="294"/>
-      <c r="AE41" s="294"/>
-      <c r="AF41" s="294"/>
-      <c r="AG41" s="294"/>
-      <c r="AH41" s="294"/>
-      <c r="AI41" s="295"/>
+      <c r="L41" s="204"/>
+      <c r="M41" s="204"/>
+      <c r="N41" s="204"/>
+      <c r="O41" s="204"/>
+      <c r="P41" s="204"/>
+      <c r="Q41" s="204"/>
+      <c r="R41" s="204"/>
+      <c r="S41" s="204"/>
+      <c r="T41" s="204"/>
+      <c r="U41" s="204"/>
+      <c r="V41" s="204"/>
+      <c r="W41" s="205"/>
+      <c r="X41" s="204"/>
+      <c r="Y41" s="204"/>
+      <c r="Z41" s="204"/>
+      <c r="AA41" s="204"/>
+      <c r="AB41" s="204"/>
+      <c r="AC41" s="204"/>
+      <c r="AD41" s="204"/>
+      <c r="AE41" s="204"/>
+      <c r="AF41" s="204"/>
+      <c r="AG41" s="204"/>
+      <c r="AH41" s="204"/>
+      <c r="AI41" s="205"/>
     </row>
     <row r="42" spans="1:35" ht="32.25" customHeight="1">
-      <c r="A42" s="433" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" s="434"/>
-      <c r="C42" s="434"/>
-      <c r="D42" s="434"/>
-      <c r="E42" s="434"/>
-      <c r="F42" s="434"/>
-      <c r="G42" s="434"/>
-      <c r="H42" s="434"/>
-      <c r="I42" s="434"/>
-      <c r="J42" s="435"/>
+      <c r="A42" s="357" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="358"/>
+      <c r="C42" s="358"/>
+      <c r="D42" s="358"/>
+      <c r="E42" s="358"/>
+      <c r="F42" s="358"/>
+      <c r="G42" s="358"/>
+      <c r="H42" s="358"/>
+      <c r="I42" s="358"/>
+      <c r="J42" s="359"/>
       <c r="K42" s="165"/>
-      <c r="L42" s="294" t="s">
+      <c r="L42" s="204" t="s">
         <v>44</v>
       </c>
-      <c r="M42" s="294"/>
-      <c r="N42" s="294"/>
-      <c r="O42" s="294"/>
-      <c r="P42" s="294"/>
-      <c r="Q42" s="294"/>
-      <c r="R42" s="294"/>
-      <c r="S42" s="294"/>
-      <c r="T42" s="294"/>
-      <c r="U42" s="294"/>
-      <c r="V42" s="294"/>
-      <c r="W42" s="295"/>
-      <c r="X42" s="294" t="s">
+      <c r="M42" s="204"/>
+      <c r="N42" s="204"/>
+      <c r="O42" s="204"/>
+      <c r="P42" s="204"/>
+      <c r="Q42" s="204"/>
+      <c r="R42" s="204"/>
+      <c r="S42" s="204"/>
+      <c r="T42" s="204"/>
+      <c r="U42" s="204"/>
+      <c r="V42" s="204"/>
+      <c r="W42" s="205"/>
+      <c r="X42" s="204" t="s">
         <v>44</v>
       </c>
-      <c r="Y42" s="294"/>
-      <c r="Z42" s="294"/>
-      <c r="AA42" s="294"/>
-      <c r="AB42" s="294"/>
-      <c r="AC42" s="294"/>
-      <c r="AD42" s="294"/>
-      <c r="AE42" s="294"/>
-      <c r="AF42" s="294"/>
-      <c r="AG42" s="294"/>
-      <c r="AH42" s="294"/>
-      <c r="AI42" s="295"/>
+      <c r="Y42" s="204"/>
+      <c r="Z42" s="204"/>
+      <c r="AA42" s="204"/>
+      <c r="AB42" s="204"/>
+      <c r="AC42" s="204"/>
+      <c r="AD42" s="204"/>
+      <c r="AE42" s="204"/>
+      <c r="AF42" s="204"/>
+      <c r="AG42" s="204"/>
+      <c r="AH42" s="204"/>
+      <c r="AI42" s="205"/>
     </row>
     <row r="43" spans="1:35" ht="26.25" customHeight="1" thickBot="1">
       <c r="A43" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="B43" s="437"/>
-      <c r="C43" s="436" t="s">
-        <v>575</v>
-      </c>
-      <c r="D43" s="447"/>
-      <c r="E43" s="437"/>
-      <c r="F43" s="440"/>
-      <c r="G43" s="441"/>
-      <c r="H43" s="436" t="s">
-        <v>576</v>
-      </c>
-      <c r="I43" s="447"/>
-      <c r="J43" s="444"/>
+        <v>98</v>
+      </c>
+      <c r="B43" s="308"/>
+      <c r="C43" s="362" t="s">
+        <v>572</v>
+      </c>
+      <c r="D43" s="363"/>
+      <c r="E43" s="308"/>
+      <c r="F43" s="311"/>
+      <c r="G43" s="312"/>
+      <c r="H43" s="362" t="s">
+        <v>573</v>
+      </c>
+      <c r="I43" s="363"/>
+      <c r="J43" s="315"/>
       <c r="K43" s="165"/>
-      <c r="L43" s="294"/>
-      <c r="M43" s="294"/>
-      <c r="N43" s="294"/>
-      <c r="O43" s="294"/>
-      <c r="P43" s="294"/>
-      <c r="Q43" s="294"/>
-      <c r="R43" s="294"/>
-      <c r="S43" s="294"/>
-      <c r="T43" s="294"/>
-      <c r="U43" s="294"/>
-      <c r="V43" s="294"/>
-      <c r="W43" s="295"/>
-      <c r="X43" s="294"/>
-      <c r="Y43" s="294"/>
-      <c r="Z43" s="294"/>
-      <c r="AA43" s="294"/>
-      <c r="AB43" s="294"/>
-      <c r="AC43" s="294"/>
-      <c r="AD43" s="294"/>
-      <c r="AE43" s="294"/>
-      <c r="AF43" s="294"/>
-      <c r="AG43" s="294"/>
-      <c r="AH43" s="294"/>
-      <c r="AI43" s="295"/>
+      <c r="L43" s="204"/>
+      <c r="M43" s="204"/>
+      <c r="N43" s="204"/>
+      <c r="O43" s="204"/>
+      <c r="P43" s="204"/>
+      <c r="Q43" s="204"/>
+      <c r="R43" s="204"/>
+      <c r="S43" s="204"/>
+      <c r="T43" s="204"/>
+      <c r="U43" s="204"/>
+      <c r="V43" s="204"/>
+      <c r="W43" s="205"/>
+      <c r="X43" s="204"/>
+      <c r="Y43" s="204"/>
+      <c r="Z43" s="204"/>
+      <c r="AA43" s="204"/>
+      <c r="AB43" s="204"/>
+      <c r="AC43" s="204"/>
+      <c r="AD43" s="204"/>
+      <c r="AE43" s="204"/>
+      <c r="AF43" s="204"/>
+      <c r="AG43" s="204"/>
+      <c r="AH43" s="204"/>
+      <c r="AI43" s="205"/>
     </row>
     <row r="44" spans="1:35" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A44" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="B44" s="437"/>
-      <c r="C44" s="259" t="s">
-        <v>577</v>
-      </c>
-      <c r="D44" s="260"/>
-      <c r="E44" s="438"/>
-      <c r="F44" s="440"/>
-      <c r="G44" s="442"/>
-      <c r="H44" s="259" t="s">
-        <v>578</v>
-      </c>
-      <c r="I44" s="260"/>
-      <c r="J44" s="445"/>
+        <v>99</v>
+      </c>
+      <c r="B44" s="308"/>
+      <c r="C44" s="360" t="s">
+        <v>574</v>
+      </c>
+      <c r="D44" s="361"/>
+      <c r="E44" s="309"/>
+      <c r="F44" s="311"/>
+      <c r="G44" s="313"/>
+      <c r="H44" s="360" t="s">
+        <v>575</v>
+      </c>
+      <c r="I44" s="361"/>
+      <c r="J44" s="316"/>
       <c r="K44" s="165"/>
-      <c r="L44" s="294"/>
-      <c r="M44" s="294"/>
-      <c r="N44" s="294"/>
-      <c r="O44" s="294"/>
-      <c r="P44" s="294"/>
-      <c r="Q44" s="294"/>
-      <c r="R44" s="294"/>
-      <c r="S44" s="294"/>
-      <c r="T44" s="294"/>
-      <c r="U44" s="294"/>
-      <c r="V44" s="294"/>
-      <c r="W44" s="295"/>
-      <c r="X44" s="294"/>
-      <c r="Y44" s="294"/>
-      <c r="Z44" s="294"/>
-      <c r="AA44" s="294"/>
-      <c r="AB44" s="294"/>
-      <c r="AC44" s="294"/>
-      <c r="AD44" s="294"/>
-      <c r="AE44" s="294"/>
-      <c r="AF44" s="294"/>
-      <c r="AG44" s="294"/>
-      <c r="AH44" s="294"/>
-      <c r="AI44" s="295"/>
+      <c r="L44" s="204"/>
+      <c r="M44" s="204"/>
+      <c r="N44" s="204"/>
+      <c r="O44" s="204"/>
+      <c r="P44" s="204"/>
+      <c r="Q44" s="204"/>
+      <c r="R44" s="204"/>
+      <c r="S44" s="204"/>
+      <c r="T44" s="204"/>
+      <c r="U44" s="204"/>
+      <c r="V44" s="204"/>
+      <c r="W44" s="205"/>
+      <c r="X44" s="204"/>
+      <c r="Y44" s="204"/>
+      <c r="Z44" s="204"/>
+      <c r="AA44" s="204"/>
+      <c r="AB44" s="204"/>
+      <c r="AC44" s="204"/>
+      <c r="AD44" s="204"/>
+      <c r="AE44" s="204"/>
+      <c r="AF44" s="204"/>
+      <c r="AG44" s="204"/>
+      <c r="AH44" s="204"/>
+      <c r="AI44" s="205"/>
     </row>
     <row r="45" spans="1:35" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A45" s="173" t="s">
-        <v>102</v>
-      </c>
-      <c r="B45" s="437"/>
-      <c r="C45" s="259" t="s">
-        <v>579</v>
-      </c>
-      <c r="D45" s="260"/>
-      <c r="E45" s="439"/>
-      <c r="F45" s="440"/>
-      <c r="G45" s="443"/>
-      <c r="H45" s="259" t="s">
-        <v>580</v>
-      </c>
-      <c r="I45" s="260"/>
-      <c r="J45" s="446"/>
+        <v>100</v>
+      </c>
+      <c r="B45" s="308"/>
+      <c r="C45" s="360" t="s">
+        <v>576</v>
+      </c>
+      <c r="D45" s="361"/>
+      <c r="E45" s="310"/>
+      <c r="F45" s="311"/>
+      <c r="G45" s="314"/>
+      <c r="H45" s="360" t="s">
+        <v>577</v>
+      </c>
+      <c r="I45" s="361"/>
+      <c r="J45" s="317"/>
       <c r="K45" s="165"/>
-      <c r="L45" s="296"/>
-      <c r="M45" s="296"/>
-      <c r="N45" s="296"/>
-      <c r="O45" s="296"/>
-      <c r="P45" s="297"/>
-      <c r="Q45" s="298"/>
-      <c r="R45" s="296"/>
-      <c r="S45" s="296"/>
-      <c r="T45" s="296"/>
-      <c r="U45" s="296"/>
-      <c r="V45" s="296"/>
-      <c r="W45" s="299"/>
-      <c r="X45" s="296"/>
-      <c r="Y45" s="296"/>
-      <c r="Z45" s="296"/>
-      <c r="AA45" s="296"/>
-      <c r="AB45" s="297"/>
-      <c r="AC45" s="298"/>
-      <c r="AD45" s="296"/>
-      <c r="AE45" s="296"/>
-      <c r="AF45" s="296"/>
-      <c r="AG45" s="296"/>
-      <c r="AH45" s="296"/>
-      <c r="AI45" s="299"/>
+      <c r="L45" s="206"/>
+      <c r="M45" s="206"/>
+      <c r="N45" s="206"/>
+      <c r="O45" s="206"/>
+      <c r="P45" s="207"/>
+      <c r="Q45" s="208"/>
+      <c r="R45" s="206"/>
+      <c r="S45" s="206"/>
+      <c r="T45" s="206"/>
+      <c r="U45" s="206"/>
+      <c r="V45" s="206"/>
+      <c r="W45" s="209"/>
+      <c r="X45" s="206"/>
+      <c r="Y45" s="206"/>
+      <c r="Z45" s="206"/>
+      <c r="AA45" s="206"/>
+      <c r="AB45" s="207"/>
+      <c r="AC45" s="208"/>
+      <c r="AD45" s="206"/>
+      <c r="AE45" s="206"/>
+      <c r="AF45" s="206"/>
+      <c r="AG45" s="206"/>
+      <c r="AH45" s="206"/>
+      <c r="AI45" s="209"/>
     </row>
     <row r="46" spans="1:35" s="110" customFormat="1" ht="32.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A46" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="448" t="s">
-        <v>581</v>
-      </c>
-      <c r="C46" s="200"/>
-      <c r="D46" s="201"/>
-      <c r="E46" s="449" t="s">
-        <v>58</v>
-      </c>
-      <c r="F46" s="450"/>
-      <c r="G46" s="451"/>
-      <c r="H46" s="205"/>
-      <c r="I46" s="206"/>
-      <c r="J46" s="449" t="s">
-        <v>582</v>
+      <c r="B46" s="318" t="s">
+        <v>578</v>
+      </c>
+      <c r="C46" s="348"/>
+      <c r="D46" s="349"/>
+      <c r="E46" s="319" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="320"/>
+      <c r="G46" s="321"/>
+      <c r="H46" s="346"/>
+      <c r="I46" s="347"/>
+      <c r="J46" s="319" t="s">
+        <v>579</v>
       </c>
       <c r="K46" s="166"/>
-      <c r="L46" s="331" t="s">
+      <c r="L46" s="241" t="s">
+        <v>467</v>
+      </c>
+      <c r="M46" s="242" t="s">
+        <v>468</v>
+      </c>
+      <c r="N46" s="242" t="s">
+        <v>469</v>
+      </c>
+      <c r="O46" s="242" t="s">
         <v>470</v>
       </c>
-      <c r="M46" s="332" t="s">
+      <c r="P46" s="242" t="s">
         <v>471</v>
       </c>
-      <c r="N46" s="332" t="s">
+      <c r="Q46" s="242" t="s">
         <v>472</v>
       </c>
-      <c r="O46" s="332" t="s">
+      <c r="R46" s="242" t="s">
         <v>473</v>
       </c>
-      <c r="P46" s="332" t="s">
+      <c r="S46" s="242" t="s">
         <v>474</v>
       </c>
-      <c r="Q46" s="332" t="s">
+      <c r="T46" s="242" t="s">
         <v>475</v>
       </c>
-      <c r="R46" s="332" t="s">
+      <c r="U46" s="242" t="s">
         <v>476</v>
       </c>
-      <c r="S46" s="332" t="s">
+      <c r="V46" s="242" t="s">
         <v>477</v>
       </c>
-      <c r="T46" s="332" t="s">
+      <c r="W46" s="242" t="s">
         <v>478</v>
       </c>
-      <c r="U46" s="332" t="s">
+      <c r="X46" s="231" t="s">
         <v>479</v>
       </c>
-      <c r="V46" s="332" t="s">
+      <c r="Y46" s="231" t="s">
         <v>480</v>
       </c>
-      <c r="W46" s="332" t="s">
+      <c r="Z46" s="231" t="s">
         <v>481</v>
       </c>
-      <c r="X46" s="321" t="s">
+      <c r="AA46" s="231" t="s">
         <v>482</v>
       </c>
-      <c r="Y46" s="321" t="s">
+      <c r="AB46" s="231" t="s">
         <v>483</v>
       </c>
-      <c r="Z46" s="321" t="s">
+      <c r="AC46" s="231" t="s">
         <v>484</v>
       </c>
-      <c r="AA46" s="321" t="s">
+      <c r="AD46" s="231" t="s">
         <v>485</v>
       </c>
-      <c r="AB46" s="321" t="s">
+      <c r="AE46" s="231" t="s">
         <v>486</v>
       </c>
-      <c r="AC46" s="321" t="s">
+      <c r="AF46" s="231" t="s">
         <v>487</v>
       </c>
-      <c r="AD46" s="321" t="s">
+      <c r="AG46" s="231" t="s">
         <v>488</v>
       </c>
-      <c r="AE46" s="321" t="s">
+      <c r="AH46" s="231" t="s">
         <v>489</v>
       </c>
-      <c r="AF46" s="321" t="s">
+      <c r="AI46" s="234" t="s">
         <v>490</v>
-      </c>
-      <c r="AG46" s="321" t="s">
-        <v>491</v>
-      </c>
-      <c r="AH46" s="321" t="s">
-        <v>492</v>
-      </c>
-      <c r="AI46" s="324" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="47" spans="1:35" s="154" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A47" s="9"/>
       <c r="B47" s="52"/>
-      <c r="C47" s="255"/>
-      <c r="D47" s="256"/>
+      <c r="C47" s="423"/>
+      <c r="D47" s="424"/>
       <c r="E47" s="50"/>
       <c r="F47" s="66"/>
       <c r="G47" s="53"/>
-      <c r="H47" s="255"/>
-      <c r="I47" s="256"/>
+      <c r="H47" s="423"/>
+      <c r="I47" s="424"/>
       <c r="J47" s="113"/>
       <c r="K47" s="167"/>
-      <c r="L47" s="312" t="s">
+      <c r="L47" s="222" t="s">
+        <v>115</v>
+      </c>
+      <c r="M47" s="223" t="s">
+        <v>116</v>
+      </c>
+      <c r="N47" s="223" t="s">
         <v>117</v>
       </c>
-      <c r="M47" s="313" t="s">
+      <c r="O47" s="223" t="s">
         <v>118</v>
       </c>
-      <c r="N47" s="313" t="s">
+      <c r="P47" s="223" t="s">
         <v>119</v>
       </c>
-      <c r="O47" s="313" t="s">
+      <c r="Q47" s="223" t="s">
         <v>120</v>
       </c>
-      <c r="P47" s="313" t="s">
+      <c r="R47" s="223" t="s">
         <v>121</v>
       </c>
-      <c r="Q47" s="313" t="s">
+      <c r="S47" s="223" t="s">
         <v>122</v>
       </c>
-      <c r="R47" s="313" t="s">
+      <c r="T47" s="223" t="s">
         <v>123</v>
       </c>
-      <c r="S47" s="313" t="s">
+      <c r="U47" s="223" t="s">
         <v>124</v>
       </c>
-      <c r="T47" s="313" t="s">
+      <c r="V47" s="223" t="s">
         <v>125</v>
       </c>
-      <c r="U47" s="313" t="s">
+      <c r="W47" s="224" t="s">
         <v>126</v>
       </c>
-      <c r="V47" s="313" t="s">
-        <v>127</v>
-      </c>
-      <c r="W47" s="314" t="s">
-        <v>128</v>
-      </c>
-      <c r="X47" s="312" t="s">
+      <c r="X47" s="222" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y47" s="223" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z47" s="223" t="s">
         <v>117</v>
       </c>
-      <c r="Y47" s="313" t="s">
+      <c r="AA47" s="223" t="s">
         <v>118</v>
       </c>
-      <c r="Z47" s="313" t="s">
+      <c r="AB47" s="223" t="s">
         <v>119</v>
       </c>
-      <c r="AA47" s="313" t="s">
+      <c r="AC47" s="223" t="s">
         <v>120</v>
       </c>
-      <c r="AB47" s="313" t="s">
+      <c r="AD47" s="223" t="s">
         <v>121</v>
       </c>
-      <c r="AC47" s="313" t="s">
+      <c r="AE47" s="223" t="s">
         <v>122</v>
       </c>
-      <c r="AD47" s="313" t="s">
+      <c r="AF47" s="223" t="s">
         <v>123</v>
       </c>
-      <c r="AE47" s="313" t="s">
+      <c r="AG47" s="223" t="s">
         <v>124</v>
       </c>
-      <c r="AF47" s="313" t="s">
+      <c r="AH47" s="223" t="s">
         <v>125</v>
       </c>
-      <c r="AG47" s="313" t="s">
+      <c r="AI47" s="224" t="s">
         <v>126</v>
-      </c>
-      <c r="AH47" s="313" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI47" s="314" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:35" s="112" customFormat="1" ht="32.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A48" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="453" t="s">
-        <v>581</v>
-      </c>
-      <c r="C48" s="257"/>
-      <c r="D48" s="258"/>
-      <c r="E48" s="454" t="s">
-        <v>57</v>
-      </c>
-      <c r="F48" s="452"/>
-      <c r="G48" s="455"/>
-      <c r="H48" s="239"/>
-      <c r="I48" s="240"/>
-      <c r="J48" s="454" t="s">
-        <v>583</v>
+      <c r="B48" s="323" t="s">
+        <v>578</v>
+      </c>
+      <c r="C48" s="352"/>
+      <c r="D48" s="353"/>
+      <c r="E48" s="324" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" s="322"/>
+      <c r="G48" s="325"/>
+      <c r="H48" s="350"/>
+      <c r="I48" s="351"/>
+      <c r="J48" s="324" t="s">
+        <v>580</v>
       </c>
       <c r="K48" s="168"/>
-      <c r="L48" s="337" t="s">
+      <c r="L48" s="247" t="s">
+        <v>491</v>
+      </c>
+      <c r="M48" s="247" t="s">
+        <v>492</v>
+      </c>
+      <c r="N48" s="247" t="s">
+        <v>493</v>
+      </c>
+      <c r="O48" s="247" t="s">
         <v>494</v>
       </c>
-      <c r="M48" s="337" t="s">
+      <c r="P48" s="247" t="s">
         <v>495</v>
       </c>
-      <c r="N48" s="337" t="s">
+      <c r="Q48" s="247" t="s">
         <v>496</v>
       </c>
-      <c r="O48" s="337" t="s">
+      <c r="R48" s="247" t="s">
         <v>497</v>
       </c>
-      <c r="P48" s="337" t="s">
+      <c r="S48" s="247" t="s">
         <v>498</v>
       </c>
-      <c r="Q48" s="337" t="s">
+      <c r="T48" s="247" t="s">
         <v>499</v>
       </c>
-      <c r="R48" s="337" t="s">
+      <c r="U48" s="247" t="s">
         <v>500</v>
       </c>
-      <c r="S48" s="337" t="s">
+      <c r="V48" s="247" t="s">
         <v>501</v>
       </c>
-      <c r="T48" s="337" t="s">
+      <c r="W48" s="247" t="s">
         <v>502</v>
       </c>
-      <c r="U48" s="337" t="s">
+      <c r="X48" s="247" t="s">
         <v>503</v>
       </c>
-      <c r="V48" s="337" t="s">
+      <c r="Y48" s="247" t="s">
         <v>504</v>
       </c>
-      <c r="W48" s="337" t="s">
+      <c r="Z48" s="247" t="s">
         <v>505</v>
       </c>
-      <c r="X48" s="337" t="s">
+      <c r="AA48" s="247" t="s">
         <v>506</v>
       </c>
-      <c r="Y48" s="337" t="s">
+      <c r="AB48" s="247" t="s">
         <v>507</v>
       </c>
-      <c r="Z48" s="337" t="s">
+      <c r="AC48" s="247" t="s">
         <v>508</v>
       </c>
-      <c r="AA48" s="337" t="s">
+      <c r="AD48" s="247" t="s">
         <v>509</v>
       </c>
-      <c r="AB48" s="337" t="s">
+      <c r="AE48" s="247" t="s">
         <v>510</v>
       </c>
-      <c r="AC48" s="337" t="s">
+      <c r="AF48" s="247" t="s">
         <v>511</v>
       </c>
-      <c r="AD48" s="337" t="s">
+      <c r="AG48" s="247" t="s">
         <v>512</v>
       </c>
-      <c r="AE48" s="337" t="s">
+      <c r="AH48" s="247" t="s">
         <v>513</v>
       </c>
-      <c r="AF48" s="337" t="s">
+      <c r="AI48" s="247" t="s">
         <v>514</v>
-      </c>
-      <c r="AG48" s="337" t="s">
-        <v>515</v>
-      </c>
-      <c r="AH48" s="337" t="s">
-        <v>516</v>
-      </c>
-      <c r="AI48" s="337" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="49" spans="1:35" customFormat="1" ht="21" customHeight="1">
@@ -9405,30 +9418,30 @@
       <c r="I49" s="14"/>
       <c r="J49" s="15"/>
       <c r="K49" s="169"/>
-      <c r="L49" s="300"/>
-      <c r="M49" s="300"/>
-      <c r="N49" s="300"/>
-      <c r="O49" s="300"/>
-      <c r="P49" s="300"/>
-      <c r="Q49" s="300"/>
-      <c r="R49" s="300"/>
-      <c r="S49" s="300"/>
-      <c r="T49" s="300"/>
-      <c r="U49" s="300"/>
-      <c r="V49" s="300"/>
-      <c r="W49" s="301"/>
-      <c r="X49" s="282"/>
-      <c r="Y49" s="282"/>
-      <c r="Z49" s="282"/>
-      <c r="AA49" s="282"/>
-      <c r="AB49" s="282"/>
-      <c r="AC49" s="282"/>
-      <c r="AD49" s="282"/>
-      <c r="AE49" s="282"/>
-      <c r="AF49" s="282"/>
-      <c r="AG49" s="282"/>
-      <c r="AH49" s="282"/>
-      <c r="AI49" s="282"/>
+      <c r="L49" s="210"/>
+      <c r="M49" s="210"/>
+      <c r="N49" s="210"/>
+      <c r="O49" s="210"/>
+      <c r="P49" s="210"/>
+      <c r="Q49" s="210"/>
+      <c r="R49" s="210"/>
+      <c r="S49" s="210"/>
+      <c r="T49" s="210"/>
+      <c r="U49" s="210"/>
+      <c r="V49" s="210"/>
+      <c r="W49" s="211"/>
+      <c r="X49" s="192"/>
+      <c r="Y49" s="192"/>
+      <c r="Z49" s="192"/>
+      <c r="AA49" s="192"/>
+      <c r="AB49" s="192"/>
+      <c r="AC49" s="192"/>
+      <c r="AD49" s="192"/>
+      <c r="AE49" s="192"/>
+      <c r="AF49" s="192"/>
+      <c r="AG49" s="192"/>
+      <c r="AH49" s="192"/>
+      <c r="AI49" s="192"/>
     </row>
     <row r="50" spans="1:35" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A50" s="13"/>
@@ -9442,30 +9455,30 @@
       <c r="I50" s="14"/>
       <c r="J50" s="15"/>
       <c r="K50" s="169"/>
-      <c r="L50" s="300"/>
-      <c r="M50" s="300"/>
-      <c r="N50" s="300"/>
-      <c r="O50" s="300"/>
-      <c r="P50" s="300"/>
-      <c r="Q50" s="300"/>
-      <c r="R50" s="300"/>
-      <c r="S50" s="300"/>
-      <c r="T50" s="300"/>
-      <c r="U50" s="300"/>
-      <c r="V50" s="300"/>
-      <c r="W50" s="301"/>
-      <c r="X50" s="282"/>
-      <c r="Y50" s="282"/>
-      <c r="Z50" s="282"/>
-      <c r="AA50" s="282"/>
-      <c r="AB50" s="282"/>
-      <c r="AC50" s="282"/>
-      <c r="AD50" s="282"/>
-      <c r="AE50" s="282"/>
-      <c r="AF50" s="282"/>
-      <c r="AG50" s="282"/>
-      <c r="AH50" s="282"/>
-      <c r="AI50" s="282"/>
+      <c r="L50" s="210"/>
+      <c r="M50" s="210"/>
+      <c r="N50" s="210"/>
+      <c r="O50" s="210"/>
+      <c r="P50" s="210"/>
+      <c r="Q50" s="210"/>
+      <c r="R50" s="210"/>
+      <c r="S50" s="210"/>
+      <c r="T50" s="210"/>
+      <c r="U50" s="210"/>
+      <c r="V50" s="210"/>
+      <c r="W50" s="211"/>
+      <c r="X50" s="192"/>
+      <c r="Y50" s="192"/>
+      <c r="Z50" s="192"/>
+      <c r="AA50" s="192"/>
+      <c r="AB50" s="192"/>
+      <c r="AC50" s="192"/>
+      <c r="AD50" s="192"/>
+      <c r="AE50" s="192"/>
+      <c r="AF50" s="192"/>
+      <c r="AG50" s="192"/>
+      <c r="AH50" s="192"/>
+      <c r="AI50" s="192"/>
     </row>
     <row r="51" spans="1:35" ht="21" customHeight="1" thickBot="1">
       <c r="A51" s="157"/>
@@ -9479,39 +9492,39 @@
       <c r="I51" s="158"/>
       <c r="J51" s="158"/>
       <c r="K51" s="158"/>
-      <c r="L51" s="315"/>
-      <c r="M51" s="315"/>
-      <c r="N51" s="315"/>
-      <c r="O51" s="315"/>
-      <c r="P51" s="315"/>
-      <c r="Q51" s="315"/>
-      <c r="R51" s="315"/>
-      <c r="S51" s="315"/>
-      <c r="T51" s="315"/>
-      <c r="U51" s="315"/>
-      <c r="V51" s="315"/>
-      <c r="W51" s="316"/>
-      <c r="X51" s="283"/>
-      <c r="Y51" s="283"/>
-      <c r="Z51" s="283"/>
-      <c r="AA51" s="283"/>
-      <c r="AB51" s="283"/>
-      <c r="AC51" s="283"/>
-      <c r="AD51" s="283"/>
-      <c r="AE51" s="283"/>
-      <c r="AF51" s="283"/>
-      <c r="AG51" s="283"/>
-      <c r="AH51" s="283"/>
-      <c r="AI51" s="283"/>
+      <c r="L51" s="225"/>
+      <c r="M51" s="225"/>
+      <c r="N51" s="225"/>
+      <c r="O51" s="225"/>
+      <c r="P51" s="225"/>
+      <c r="Q51" s="225"/>
+      <c r="R51" s="225"/>
+      <c r="S51" s="225"/>
+      <c r="T51" s="225"/>
+      <c r="U51" s="225"/>
+      <c r="V51" s="225"/>
+      <c r="W51" s="226"/>
+      <c r="X51" s="193"/>
+      <c r="Y51" s="193"/>
+      <c r="Z51" s="193"/>
+      <c r="AA51" s="193"/>
+      <c r="AB51" s="193"/>
+      <c r="AC51" s="193"/>
+      <c r="AD51" s="193"/>
+      <c r="AE51" s="193"/>
+      <c r="AF51" s="193"/>
+      <c r="AG51" s="193"/>
+      <c r="AH51" s="193"/>
+      <c r="AI51" s="193"/>
     </row>
     <row r="52" spans="1:35" s="134" customFormat="1" ht="27" customHeight="1">
-      <c r="A52" s="202" t="s">
+      <c r="A52" s="425" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="203"/>
-      <c r="C52" s="203"/>
-      <c r="D52" s="203"/>
-      <c r="E52" s="204"/>
+      <c r="B52" s="426"/>
+      <c r="C52" s="426"/>
+      <c r="D52" s="426"/>
+      <c r="E52" s="427"/>
       <c r="F52" s="126" t="s">
         <v>18</v>
       </c>
@@ -9524,30 +9537,30 @@
         <v>16</v>
       </c>
       <c r="K52" s="174"/>
-      <c r="L52" s="346"/>
-      <c r="M52" s="346"/>
-      <c r="N52" s="346"/>
-      <c r="O52" s="346"/>
-      <c r="P52" s="346"/>
-      <c r="Q52" s="346"/>
-      <c r="R52" s="346"/>
-      <c r="S52" s="346"/>
-      <c r="T52" s="346"/>
-      <c r="U52" s="346"/>
-      <c r="V52" s="346"/>
-      <c r="W52" s="346"/>
-      <c r="X52" s="287"/>
-      <c r="Y52" s="287"/>
-      <c r="Z52" s="287"/>
-      <c r="AA52" s="287"/>
-      <c r="AB52" s="287"/>
-      <c r="AC52" s="287"/>
-      <c r="AD52" s="287"/>
-      <c r="AE52" s="287"/>
-      <c r="AF52" s="287"/>
-      <c r="AG52" s="287"/>
-      <c r="AH52" s="287"/>
-      <c r="AI52" s="287"/>
+      <c r="L52" s="256"/>
+      <c r="M52" s="256"/>
+      <c r="N52" s="256"/>
+      <c r="O52" s="256"/>
+      <c r="P52" s="256"/>
+      <c r="Q52" s="256"/>
+      <c r="R52" s="256"/>
+      <c r="S52" s="256"/>
+      <c r="T52" s="256"/>
+      <c r="U52" s="256"/>
+      <c r="V52" s="256"/>
+      <c r="W52" s="256"/>
+      <c r="X52" s="197"/>
+      <c r="Y52" s="197"/>
+      <c r="Z52" s="197"/>
+      <c r="AA52" s="197"/>
+      <c r="AB52" s="197"/>
+      <c r="AC52" s="197"/>
+      <c r="AD52" s="197"/>
+      <c r="AE52" s="197"/>
+      <c r="AF52" s="197"/>
+      <c r="AG52" s="197"/>
+      <c r="AH52" s="197"/>
+      <c r="AI52" s="197"/>
     </row>
     <row r="53" spans="1:35" ht="24" customHeight="1">
       <c r="A53" s="36" t="s">
@@ -9558,86 +9571,86 @@
       <c r="D53" s="19"/>
       <c r="E53" s="20"/>
       <c r="F53" s="69"/>
-      <c r="G53" s="459" t="s">
-        <v>581</v>
-      </c>
-      <c r="H53" s="456"/>
-      <c r="I53" s="456"/>
-      <c r="J53" s="458" t="s">
-        <v>104</v>
+      <c r="G53" s="329" t="s">
+        <v>578</v>
+      </c>
+      <c r="H53" s="326"/>
+      <c r="I53" s="326"/>
+      <c r="J53" s="328" t="s">
+        <v>102</v>
       </c>
       <c r="K53" s="175"/>
-      <c r="L53" s="339"/>
-      <c r="M53" s="177" t="s">
-        <v>521</v>
-      </c>
-      <c r="N53" s="177"/>
-      <c r="O53" s="177"/>
-      <c r="P53" s="177"/>
-      <c r="Q53" s="177"/>
-      <c r="R53" s="288"/>
-      <c r="S53" s="176" t="s">
-        <v>522</v>
-      </c>
-      <c r="T53" s="176"/>
-      <c r="U53" s="176"/>
-      <c r="V53" s="176"/>
-      <c r="W53" s="176"/>
-      <c r="X53" s="283"/>
-      <c r="Y53" s="283"/>
-      <c r="Z53" s="283"/>
-      <c r="AA53" s="283"/>
-      <c r="AB53" s="283"/>
-      <c r="AC53" s="283"/>
-      <c r="AD53" s="283"/>
-      <c r="AE53" s="283"/>
-      <c r="AF53" s="283"/>
-      <c r="AG53" s="283"/>
-      <c r="AH53" s="283"/>
-      <c r="AI53" s="283"/>
+      <c r="L53" s="249"/>
+      <c r="M53" s="391" t="s">
+        <v>518</v>
+      </c>
+      <c r="N53" s="391"/>
+      <c r="O53" s="391"/>
+      <c r="P53" s="391"/>
+      <c r="Q53" s="391"/>
+      <c r="R53" s="198"/>
+      <c r="S53" s="392" t="s">
+        <v>519</v>
+      </c>
+      <c r="T53" s="392"/>
+      <c r="U53" s="392"/>
+      <c r="V53" s="392"/>
+      <c r="W53" s="392"/>
+      <c r="X53" s="193"/>
+      <c r="Y53" s="193"/>
+      <c r="Z53" s="193"/>
+      <c r="AA53" s="193"/>
+      <c r="AB53" s="193"/>
+      <c r="AC53" s="193"/>
+      <c r="AD53" s="193"/>
+      <c r="AE53" s="193"/>
+      <c r="AF53" s="193"/>
+      <c r="AG53" s="193"/>
+      <c r="AH53" s="193"/>
+      <c r="AI53" s="193"/>
     </row>
     <row r="54" spans="1:35" ht="24" customHeight="1">
       <c r="A54" s="37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
       <c r="E54" s="24"/>
       <c r="F54" s="69"/>
-      <c r="G54" s="459" t="s">
-        <v>581</v>
-      </c>
-      <c r="H54" s="457"/>
-      <c r="I54" s="457"/>
-      <c r="J54" s="458" t="s">
-        <v>105</v>
+      <c r="G54" s="329" t="s">
+        <v>578</v>
+      </c>
+      <c r="H54" s="327"/>
+      <c r="I54" s="327"/>
+      <c r="J54" s="328" t="s">
+        <v>103</v>
       </c>
       <c r="K54" s="175"/>
-      <c r="L54" s="339"/>
-      <c r="M54" s="347"/>
-      <c r="N54" s="177"/>
-      <c r="O54" s="177"/>
-      <c r="P54" s="177"/>
-      <c r="Q54" s="177"/>
-      <c r="R54" s="177"/>
-      <c r="S54" s="177"/>
-      <c r="T54" s="177"/>
-      <c r="U54" s="177"/>
-      <c r="V54" s="177"/>
-      <c r="W54" s="177"/>
-      <c r="X54" s="283"/>
-      <c r="Y54" s="283"/>
-      <c r="Z54" s="283"/>
-      <c r="AA54" s="283"/>
-      <c r="AB54" s="283"/>
-      <c r="AC54" s="283"/>
-      <c r="AD54" s="283"/>
-      <c r="AE54" s="283"/>
-      <c r="AF54" s="283"/>
-      <c r="AG54" s="283"/>
-      <c r="AH54" s="283"/>
-      <c r="AI54" s="283"/>
+      <c r="L54" s="249"/>
+      <c r="M54" s="257"/>
+      <c r="N54" s="391"/>
+      <c r="O54" s="391"/>
+      <c r="P54" s="391"/>
+      <c r="Q54" s="391"/>
+      <c r="R54" s="391"/>
+      <c r="S54" s="391"/>
+      <c r="T54" s="391"/>
+      <c r="U54" s="391"/>
+      <c r="V54" s="391"/>
+      <c r="W54" s="391"/>
+      <c r="X54" s="193"/>
+      <c r="Y54" s="193"/>
+      <c r="Z54" s="193"/>
+      <c r="AA54" s="193"/>
+      <c r="AB54" s="193"/>
+      <c r="AC54" s="193"/>
+      <c r="AD54" s="193"/>
+      <c r="AE54" s="193"/>
+      <c r="AF54" s="193"/>
+      <c r="AG54" s="193"/>
+      <c r="AH54" s="193"/>
+      <c r="AI54" s="193"/>
     </row>
     <row r="55" spans="1:35" ht="24" customHeight="1" thickBot="1">
       <c r="A55" s="37" t="s">
@@ -9648,43 +9661,43 @@
       <c r="D55" s="23"/>
       <c r="E55" s="24"/>
       <c r="F55" s="69"/>
-      <c r="G55" s="459" t="s">
-        <v>584</v>
-      </c>
-      <c r="H55" s="457"/>
-      <c r="I55" s="457"/>
-      <c r="J55" s="458" t="s">
-        <v>106</v>
+      <c r="G55" s="329" t="s">
+        <v>581</v>
+      </c>
+      <c r="H55" s="327"/>
+      <c r="I55" s="327"/>
+      <c r="J55" s="328" t="s">
+        <v>104</v>
       </c>
       <c r="K55" s="175"/>
-      <c r="L55" s="339"/>
-      <c r="M55" s="348"/>
-      <c r="N55" s="341"/>
-      <c r="O55" s="341"/>
-      <c r="P55" s="341"/>
-      <c r="Q55" s="341"/>
-      <c r="R55" s="342"/>
-      <c r="S55" s="341"/>
-      <c r="T55" s="341"/>
-      <c r="U55" s="341"/>
-      <c r="V55" s="341"/>
-      <c r="W55" s="342"/>
-      <c r="X55" s="283"/>
-      <c r="Y55" s="283"/>
-      <c r="Z55" s="283"/>
-      <c r="AA55" s="283"/>
-      <c r="AB55" s="283"/>
-      <c r="AC55" s="283"/>
-      <c r="AD55" s="283"/>
-      <c r="AE55" s="283"/>
-      <c r="AF55" s="283"/>
-      <c r="AG55" s="283"/>
-      <c r="AH55" s="283"/>
-      <c r="AI55" s="283"/>
+      <c r="L55" s="249"/>
+      <c r="M55" s="258"/>
+      <c r="N55" s="251"/>
+      <c r="O55" s="251"/>
+      <c r="P55" s="251"/>
+      <c r="Q55" s="251"/>
+      <c r="R55" s="252"/>
+      <c r="S55" s="251"/>
+      <c r="T55" s="251"/>
+      <c r="U55" s="251"/>
+      <c r="V55" s="251"/>
+      <c r="W55" s="252"/>
+      <c r="X55" s="193"/>
+      <c r="Y55" s="193"/>
+      <c r="Z55" s="193"/>
+      <c r="AA55" s="193"/>
+      <c r="AB55" s="193"/>
+      <c r="AC55" s="193"/>
+      <c r="AD55" s="193"/>
+      <c r="AE55" s="193"/>
+      <c r="AF55" s="193"/>
+      <c r="AG55" s="193"/>
+      <c r="AH55" s="193"/>
+      <c r="AI55" s="193"/>
     </row>
     <row r="56" spans="1:35" ht="27" customHeight="1" thickTop="1" thickBot="1">
       <c r="A56" s="133" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B56" s="127"/>
       <c r="C56" s="127"/>
@@ -9696,81 +9709,81 @@
       <c r="I56" s="131"/>
       <c r="J56" s="132"/>
       <c r="K56" s="175"/>
-      <c r="L56" s="339"/>
-      <c r="M56" s="354" t="s">
-        <v>518</v>
-      </c>
-      <c r="N56" s="354"/>
-      <c r="O56" s="354"/>
-      <c r="P56" s="354"/>
-      <c r="Q56" s="354"/>
-      <c r="R56" s="342"/>
-      <c r="S56" s="354" t="s">
-        <v>518</v>
-      </c>
-      <c r="T56" s="354"/>
-      <c r="U56" s="354"/>
-      <c r="V56" s="354"/>
-      <c r="W56" s="342"/>
-      <c r="X56" s="283"/>
-      <c r="Y56" s="283"/>
-      <c r="Z56" s="283"/>
-      <c r="AA56" s="283"/>
-      <c r="AB56" s="283"/>
-      <c r="AC56" s="283"/>
-      <c r="AD56" s="283"/>
-      <c r="AE56" s="283"/>
-      <c r="AF56" s="283"/>
-      <c r="AG56" s="283"/>
-      <c r="AH56" s="283"/>
-      <c r="AI56" s="283"/>
+      <c r="L56" s="249"/>
+      <c r="M56" s="393" t="s">
+        <v>515</v>
+      </c>
+      <c r="N56" s="393"/>
+      <c r="O56" s="393"/>
+      <c r="P56" s="393"/>
+      <c r="Q56" s="393"/>
+      <c r="R56" s="252"/>
+      <c r="S56" s="393" t="s">
+        <v>515</v>
+      </c>
+      <c r="T56" s="393"/>
+      <c r="U56" s="393"/>
+      <c r="V56" s="393"/>
+      <c r="W56" s="252"/>
+      <c r="X56" s="193"/>
+      <c r="Y56" s="193"/>
+      <c r="Z56" s="193"/>
+      <c r="AA56" s="193"/>
+      <c r="AB56" s="193"/>
+      <c r="AC56" s="193"/>
+      <c r="AD56" s="193"/>
+      <c r="AE56" s="193"/>
+      <c r="AF56" s="193"/>
+      <c r="AG56" s="193"/>
+      <c r="AH56" s="193"/>
+      <c r="AI56" s="193"/>
     </row>
     <row r="57" spans="1:35" ht="24" customHeight="1" thickTop="1">
       <c r="A57" s="38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
       <c r="D57" s="21"/>
       <c r="E57" s="22"/>
       <c r="F57" s="69"/>
-      <c r="G57" s="474" t="s">
-        <v>585</v>
-      </c>
-      <c r="H57" s="460" t="s">
-        <v>586</v>
-      </c>
-      <c r="I57" s="460" t="s">
-        <v>586</v>
-      </c>
-      <c r="J57" s="473" t="s">
-        <v>110</v>
+      <c r="G57" s="344" t="s">
+        <v>582</v>
+      </c>
+      <c r="H57" s="330" t="s">
+        <v>583</v>
+      </c>
+      <c r="I57" s="330" t="s">
+        <v>583</v>
+      </c>
+      <c r="J57" s="343" t="s">
+        <v>108</v>
       </c>
       <c r="K57" s="175"/>
-      <c r="L57" s="339"/>
-      <c r="M57" s="356"/>
-      <c r="N57" s="356"/>
-      <c r="O57" s="356"/>
-      <c r="P57" s="356"/>
-      <c r="Q57" s="356"/>
-      <c r="R57" s="343"/>
-      <c r="S57" s="357"/>
-      <c r="T57" s="357"/>
-      <c r="U57" s="357"/>
-      <c r="V57" s="357"/>
-      <c r="W57" s="343"/>
-      <c r="X57" s="283"/>
-      <c r="Y57" s="283"/>
-      <c r="Z57" s="283"/>
-      <c r="AA57" s="283"/>
-      <c r="AB57" s="283"/>
-      <c r="AC57" s="283"/>
-      <c r="AD57" s="283"/>
-      <c r="AE57" s="283"/>
-      <c r="AF57" s="283"/>
-      <c r="AG57" s="283"/>
-      <c r="AH57" s="283"/>
-      <c r="AI57" s="283"/>
+      <c r="L57" s="249"/>
+      <c r="M57" s="395"/>
+      <c r="N57" s="395"/>
+      <c r="O57" s="395"/>
+      <c r="P57" s="395"/>
+      <c r="Q57" s="395"/>
+      <c r="R57" s="253"/>
+      <c r="S57" s="396"/>
+      <c r="T57" s="396"/>
+      <c r="U57" s="396"/>
+      <c r="V57" s="396"/>
+      <c r="W57" s="253"/>
+      <c r="X57" s="193"/>
+      <c r="Y57" s="193"/>
+      <c r="Z57" s="193"/>
+      <c r="AA57" s="193"/>
+      <c r="AB57" s="193"/>
+      <c r="AC57" s="193"/>
+      <c r="AD57" s="193"/>
+      <c r="AE57" s="193"/>
+      <c r="AF57" s="193"/>
+      <c r="AG57" s="193"/>
+      <c r="AH57" s="193"/>
+      <c r="AI57" s="193"/>
     </row>
     <row r="58" spans="1:35" ht="24" customHeight="1" thickBot="1">
       <c r="A58" s="34" t="s">
@@ -9781,43 +9794,43 @@
       <c r="D58" s="23"/>
       <c r="E58" s="24"/>
       <c r="F58" s="69"/>
-      <c r="G58" s="474" t="s">
-        <v>581</v>
-      </c>
-      <c r="H58" s="461"/>
-      <c r="I58" s="461"/>
-      <c r="J58" s="470" t="s">
-        <v>111</v>
+      <c r="G58" s="344" t="s">
+        <v>578</v>
+      </c>
+      <c r="H58" s="331"/>
+      <c r="I58" s="331"/>
+      <c r="J58" s="340" t="s">
+        <v>109</v>
       </c>
       <c r="K58" s="171"/>
-      <c r="L58" s="288"/>
-      <c r="M58" s="354" t="s">
-        <v>519</v>
-      </c>
-      <c r="N58" s="354"/>
-      <c r="O58" s="354"/>
-      <c r="P58" s="354"/>
-      <c r="Q58" s="354"/>
-      <c r="R58" s="349"/>
-      <c r="S58" s="354" t="s">
-        <v>519</v>
-      </c>
-      <c r="T58" s="354"/>
-      <c r="U58" s="354"/>
-      <c r="V58" s="354"/>
-      <c r="W58" s="288"/>
-      <c r="X58" s="283"/>
-      <c r="Y58" s="283"/>
-      <c r="Z58" s="283"/>
-      <c r="AA58" s="283"/>
-      <c r="AB58" s="283"/>
-      <c r="AC58" s="283"/>
-      <c r="AD58" s="283"/>
-      <c r="AE58" s="283"/>
-      <c r="AF58" s="283"/>
-      <c r="AG58" s="283"/>
-      <c r="AH58" s="283"/>
-      <c r="AI58" s="283"/>
+      <c r="L58" s="198"/>
+      <c r="M58" s="393" t="s">
+        <v>516</v>
+      </c>
+      <c r="N58" s="393"/>
+      <c r="O58" s="393"/>
+      <c r="P58" s="393"/>
+      <c r="Q58" s="393"/>
+      <c r="R58" s="259"/>
+      <c r="S58" s="393" t="s">
+        <v>516</v>
+      </c>
+      <c r="T58" s="393"/>
+      <c r="U58" s="393"/>
+      <c r="V58" s="393"/>
+      <c r="W58" s="198"/>
+      <c r="X58" s="193"/>
+      <c r="Y58" s="193"/>
+      <c r="Z58" s="193"/>
+      <c r="AA58" s="193"/>
+      <c r="AB58" s="193"/>
+      <c r="AC58" s="193"/>
+      <c r="AD58" s="193"/>
+      <c r="AE58" s="193"/>
+      <c r="AF58" s="193"/>
+      <c r="AG58" s="193"/>
+      <c r="AH58" s="193"/>
+      <c r="AI58" s="193"/>
     </row>
     <row r="59" spans="1:35" s="125" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A59" s="122" t="s">
@@ -9828,39 +9841,39 @@
       <c r="D59" s="123"/>
       <c r="E59" s="124"/>
       <c r="F59" s="121"/>
-      <c r="G59" s="468" t="s">
-        <v>581</v>
-      </c>
-      <c r="H59" s="469"/>
-      <c r="I59" s="469"/>
-      <c r="J59" s="471" t="s">
-        <v>587</v>
+      <c r="G59" s="338" t="s">
+        <v>578</v>
+      </c>
+      <c r="H59" s="339"/>
+      <c r="I59" s="339"/>
+      <c r="J59" s="341" t="s">
+        <v>584</v>
       </c>
       <c r="K59" s="170"/>
-      <c r="L59" s="339"/>
-      <c r="M59" s="339"/>
-      <c r="N59" s="178"/>
-      <c r="O59" s="178"/>
-      <c r="P59" s="178"/>
-      <c r="Q59" s="178"/>
-      <c r="R59" s="343"/>
-      <c r="S59" s="178"/>
-      <c r="T59" s="178"/>
-      <c r="U59" s="178"/>
-      <c r="V59" s="178"/>
-      <c r="W59" s="343"/>
-      <c r="X59" s="286"/>
-      <c r="Y59" s="286"/>
-      <c r="Z59" s="286"/>
-      <c r="AA59" s="286"/>
-      <c r="AB59" s="286"/>
-      <c r="AC59" s="286"/>
-      <c r="AD59" s="286"/>
-      <c r="AE59" s="286"/>
-      <c r="AF59" s="286"/>
-      <c r="AG59" s="286"/>
-      <c r="AH59" s="286"/>
-      <c r="AI59" s="286"/>
+      <c r="L59" s="249"/>
+      <c r="M59" s="249"/>
+      <c r="N59" s="390"/>
+      <c r="O59" s="390"/>
+      <c r="P59" s="390"/>
+      <c r="Q59" s="390"/>
+      <c r="R59" s="253"/>
+      <c r="S59" s="390"/>
+      <c r="T59" s="390"/>
+      <c r="U59" s="390"/>
+      <c r="V59" s="390"/>
+      <c r="W59" s="253"/>
+      <c r="X59" s="196"/>
+      <c r="Y59" s="196"/>
+      <c r="Z59" s="196"/>
+      <c r="AA59" s="196"/>
+      <c r="AB59" s="196"/>
+      <c r="AC59" s="196"/>
+      <c r="AD59" s="196"/>
+      <c r="AE59" s="196"/>
+      <c r="AF59" s="196"/>
+      <c r="AG59" s="196"/>
+      <c r="AH59" s="196"/>
+      <c r="AI59" s="196"/>
     </row>
     <row r="60" spans="1:35" s="80" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1">
       <c r="A60" s="118" t="s">
@@ -9871,82 +9884,82 @@
       <c r="D60" s="119"/>
       <c r="E60" s="120"/>
       <c r="F60" s="121"/>
-      <c r="G60" s="466"/>
-      <c r="H60" s="467"/>
-      <c r="I60" s="467"/>
-      <c r="J60" s="472"/>
+      <c r="G60" s="336"/>
+      <c r="H60" s="337"/>
+      <c r="I60" s="337"/>
+      <c r="J60" s="342"/>
       <c r="K60" s="170"/>
-      <c r="L60" s="344"/>
-      <c r="M60" s="355"/>
-      <c r="N60" s="355"/>
-      <c r="O60" s="355"/>
-      <c r="P60" s="355"/>
-      <c r="Q60" s="355"/>
-      <c r="R60" s="355"/>
-      <c r="S60" s="355"/>
-      <c r="T60" s="355"/>
-      <c r="U60" s="355"/>
-      <c r="V60" s="355"/>
-      <c r="W60" s="345"/>
-      <c r="X60" s="285"/>
-      <c r="Y60" s="285"/>
-      <c r="Z60" s="285"/>
-      <c r="AA60" s="285"/>
-      <c r="AB60" s="285"/>
-      <c r="AC60" s="285"/>
-      <c r="AD60" s="285"/>
-      <c r="AE60" s="285"/>
-      <c r="AF60" s="285"/>
-      <c r="AG60" s="285"/>
-      <c r="AH60" s="285"/>
-      <c r="AI60" s="285"/>
+      <c r="L60" s="254"/>
+      <c r="M60" s="394"/>
+      <c r="N60" s="394"/>
+      <c r="O60" s="394"/>
+      <c r="P60" s="394"/>
+      <c r="Q60" s="394"/>
+      <c r="R60" s="394"/>
+      <c r="S60" s="394"/>
+      <c r="T60" s="394"/>
+      <c r="U60" s="394"/>
+      <c r="V60" s="394"/>
+      <c r="W60" s="255"/>
+      <c r="X60" s="195"/>
+      <c r="Y60" s="195"/>
+      <c r="Z60" s="195"/>
+      <c r="AA60" s="195"/>
+      <c r="AB60" s="195"/>
+      <c r="AC60" s="195"/>
+      <c r="AD60" s="195"/>
+      <c r="AE60" s="195"/>
+      <c r="AF60" s="195"/>
+      <c r="AG60" s="195"/>
+      <c r="AH60" s="195"/>
+      <c r="AI60" s="195"/>
     </row>
     <row r="61" spans="1:35" ht="24" customHeight="1" thickTop="1" thickBot="1">
       <c r="A61" s="38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
       <c r="D61" s="21"/>
       <c r="E61" s="22"/>
       <c r="F61" s="69"/>
-      <c r="G61" s="474" t="s">
-        <v>588</v>
-      </c>
-      <c r="H61" s="460" t="s">
-        <v>589</v>
-      </c>
-      <c r="I61" s="460" t="s">
-        <v>589</v>
-      </c>
-      <c r="J61" s="473" t="s">
-        <v>114</v>
+      <c r="G61" s="344" t="s">
+        <v>585</v>
+      </c>
+      <c r="H61" s="330" t="s">
+        <v>586</v>
+      </c>
+      <c r="I61" s="330" t="s">
+        <v>586</v>
+      </c>
+      <c r="J61" s="343" t="s">
+        <v>112</v>
       </c>
       <c r="K61" s="171"/>
-      <c r="L61" s="344"/>
-      <c r="M61" s="355"/>
-      <c r="N61" s="355"/>
-      <c r="O61" s="355"/>
-      <c r="P61" s="355"/>
-      <c r="Q61" s="355"/>
-      <c r="R61" s="355"/>
-      <c r="S61" s="355"/>
-      <c r="T61" s="355"/>
-      <c r="U61" s="355"/>
-      <c r="V61" s="355"/>
-      <c r="W61" s="345"/>
-      <c r="X61" s="283"/>
-      <c r="Y61" s="283"/>
-      <c r="Z61" s="283"/>
-      <c r="AA61" s="283"/>
-      <c r="AB61" s="283"/>
-      <c r="AC61" s="283"/>
-      <c r="AD61" s="283"/>
-      <c r="AE61" s="283"/>
-      <c r="AF61" s="283"/>
-      <c r="AG61" s="283"/>
-      <c r="AH61" s="283"/>
-      <c r="AI61" s="283"/>
+      <c r="L61" s="254"/>
+      <c r="M61" s="394"/>
+      <c r="N61" s="394"/>
+      <c r="O61" s="394"/>
+      <c r="P61" s="394"/>
+      <c r="Q61" s="394"/>
+      <c r="R61" s="394"/>
+      <c r="S61" s="394"/>
+      <c r="T61" s="394"/>
+      <c r="U61" s="394"/>
+      <c r="V61" s="394"/>
+      <c r="W61" s="255"/>
+      <c r="X61" s="193"/>
+      <c r="Y61" s="193"/>
+      <c r="Z61" s="193"/>
+      <c r="AA61" s="193"/>
+      <c r="AB61" s="193"/>
+      <c r="AC61" s="193"/>
+      <c r="AD61" s="193"/>
+      <c r="AE61" s="193"/>
+      <c r="AF61" s="193"/>
+      <c r="AG61" s="193"/>
+      <c r="AH61" s="193"/>
+      <c r="AI61" s="193"/>
     </row>
     <row r="62" spans="1:35" s="80" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A62" s="118" t="s">
@@ -9957,39 +9970,39 @@
       <c r="D62" s="119"/>
       <c r="E62" s="120"/>
       <c r="F62" s="121"/>
-      <c r="G62" s="464" t="s">
-        <v>581</v>
-      </c>
-      <c r="H62" s="465"/>
-      <c r="I62" s="465"/>
-      <c r="J62" s="470" t="s">
-        <v>112</v>
+      <c r="G62" s="334" t="s">
+        <v>578</v>
+      </c>
+      <c r="H62" s="335"/>
+      <c r="I62" s="335"/>
+      <c r="J62" s="340" t="s">
+        <v>110</v>
       </c>
       <c r="K62" s="170"/>
-      <c r="L62" s="339"/>
-      <c r="M62" s="355"/>
-      <c r="N62" s="355"/>
-      <c r="O62" s="355"/>
-      <c r="P62" s="355"/>
-      <c r="Q62" s="355"/>
-      <c r="R62" s="355"/>
-      <c r="S62" s="355"/>
-      <c r="T62" s="355"/>
-      <c r="U62" s="355"/>
-      <c r="V62" s="355"/>
-      <c r="W62" s="340"/>
-      <c r="X62" s="285"/>
-      <c r="Y62" s="285"/>
-      <c r="Z62" s="285"/>
-      <c r="AA62" s="285"/>
-      <c r="AB62" s="285"/>
-      <c r="AC62" s="285"/>
-      <c r="AD62" s="285"/>
-      <c r="AE62" s="285"/>
-      <c r="AF62" s="285"/>
-      <c r="AG62" s="285"/>
-      <c r="AH62" s="285"/>
-      <c r="AI62" s="285"/>
+      <c r="L62" s="249"/>
+      <c r="M62" s="394"/>
+      <c r="N62" s="394"/>
+      <c r="O62" s="394"/>
+      <c r="P62" s="394"/>
+      <c r="Q62" s="394"/>
+      <c r="R62" s="394"/>
+      <c r="S62" s="394"/>
+      <c r="T62" s="394"/>
+      <c r="U62" s="394"/>
+      <c r="V62" s="394"/>
+      <c r="W62" s="250"/>
+      <c r="X62" s="195"/>
+      <c r="Y62" s="195"/>
+      <c r="Z62" s="195"/>
+      <c r="AA62" s="195"/>
+      <c r="AB62" s="195"/>
+      <c r="AC62" s="195"/>
+      <c r="AD62" s="195"/>
+      <c r="AE62" s="195"/>
+      <c r="AF62" s="195"/>
+      <c r="AG62" s="195"/>
+      <c r="AH62" s="195"/>
+      <c r="AI62" s="195"/>
     </row>
     <row r="63" spans="1:35" s="78" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A63" s="114" t="s">
@@ -10000,41 +10013,41 @@
       <c r="D63" s="115"/>
       <c r="E63" s="116"/>
       <c r="F63" s="117"/>
-      <c r="G63" s="462" t="s">
-        <v>581</v>
-      </c>
-      <c r="H63" s="463"/>
-      <c r="I63" s="463"/>
-      <c r="J63" s="470" t="s">
-        <v>115</v>
+      <c r="G63" s="332" t="s">
+        <v>578</v>
+      </c>
+      <c r="H63" s="333"/>
+      <c r="I63" s="333"/>
+      <c r="J63" s="340" t="s">
+        <v>113</v>
       </c>
       <c r="K63" s="156"/>
-      <c r="L63" s="281" t="s">
-        <v>520</v>
-      </c>
-      <c r="M63" s="352"/>
-      <c r="N63" s="352"/>
-      <c r="O63" s="352"/>
-      <c r="P63" s="352"/>
-      <c r="Q63" s="352"/>
-      <c r="R63" s="352"/>
-      <c r="S63" s="352"/>
-      <c r="T63" s="352"/>
-      <c r="U63" s="352"/>
-      <c r="V63" s="352"/>
-      <c r="W63" s="353"/>
-      <c r="X63" s="284"/>
-      <c r="Y63" s="284"/>
-      <c r="Z63" s="284"/>
-      <c r="AA63" s="284"/>
-      <c r="AB63" s="284"/>
-      <c r="AC63" s="284"/>
-      <c r="AD63" s="284"/>
-      <c r="AE63" s="284"/>
-      <c r="AF63" s="284"/>
-      <c r="AG63" s="284"/>
-      <c r="AH63" s="284"/>
-      <c r="AI63" s="284"/>
+      <c r="L63" s="387" t="s">
+        <v>517</v>
+      </c>
+      <c r="M63" s="388"/>
+      <c r="N63" s="388"/>
+      <c r="O63" s="388"/>
+      <c r="P63" s="388"/>
+      <c r="Q63" s="388"/>
+      <c r="R63" s="388"/>
+      <c r="S63" s="388"/>
+      <c r="T63" s="388"/>
+      <c r="U63" s="388"/>
+      <c r="V63" s="388"/>
+      <c r="W63" s="389"/>
+      <c r="X63" s="194"/>
+      <c r="Y63" s="194"/>
+      <c r="Z63" s="194"/>
+      <c r="AA63" s="194"/>
+      <c r="AB63" s="194"/>
+      <c r="AC63" s="194"/>
+      <c r="AD63" s="194"/>
+      <c r="AE63" s="194"/>
+      <c r="AF63" s="194"/>
+      <c r="AG63" s="194"/>
+      <c r="AH63" s="194"/>
+      <c r="AI63" s="194"/>
     </row>
     <row r="64" spans="1:35">
       <c r="C64" s="5" t="s">
@@ -10043,31 +10056,43 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="X13:AI13"/>
-    <mergeCell ref="L13:W13"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B1:J2"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="M10:W10"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="X1:AI2"/>
+    <mergeCell ref="Y10:AI10"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="L1:W2"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="L63:W63"/>
     <mergeCell ref="S59:V59"/>
     <mergeCell ref="N54:R54"/>
@@ -10082,43 +10107,31 @@
     <mergeCell ref="M60:V62"/>
     <mergeCell ref="M57:Q57"/>
     <mergeCell ref="S57:V57"/>
-    <mergeCell ref="X1:AI2"/>
-    <mergeCell ref="Y10:AI10"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="L1:W2"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="M10:W10"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B1:J2"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="X13:AI13"/>
+    <mergeCell ref="L13:W13"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
